--- a/02_programme_task/xlsx_out/27.Daniel.xlsx
+++ b/02_programme_task/xlsx_out/27.Daniel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,3499 +453,4363 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In the third year of the reign of Jehoiakim king of Judah, Nebuchadnezzar king of Babylon came to Jerusalem and besieged it. 2</t>
+          <t>Daniel Daniel Taken to Babylon</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daniel 1:2</t>
+          <t>Daniel 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>And the Lord gave Jehoiakim king of Judah into his hand, with some of the vessels of the house of God. And he brought them to the land of Shinar, to the house of his god, and placed the vessels in the treasury of his god. 3</t>
+          <t>In the third year of a the reign of Jehoiakim king of Judah, Nebuchadnezzar king of Babylon came to Jerusalem and besieged it.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Daniel 1:3</t>
+          <t>Daniel 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Then the king commanded Ashpenaz, his chief eunuch, to bring some of the people of Israel, both of the royal famil16 y and of the nobility, 4</t>
+          <t>And the Lord gave Jehoiakim king of Judah into his hand, with some of b the vessels of the house of God. And he brought them to c the land of Shinar, to the house of his god, d and placed the vessels in the treasury of his god.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniel 1:4</t>
+          <t>Daniel 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>youths without blemish, of good appearance and skillful in all wisdom, endowed with knowledge, understanding learning, and competent to stand in the king's palace, and to teach them the literature and language of the Chaldeans. 5</t>
+          <t>Then the king commanded Ashpenaz, e his chief eunuch, to bring some of the people of Israel, both of the royal family and of f the nobility,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Daniel 1:5</t>
+          <t>Daniel 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The king assigned them a daily portion of the food that the king ate, and of the wine that he drank. They were to be educated for three years, and at the end of that time they were to stand before the king. 6</t>
+          <t>youths without g blemish, of good appearance and h skillful in all wisdom, endowed with knowledge, understanding learning, and competent to stand in the king s palace, and to i teach them the literature and language of the j Chaldeans.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Daniel 1:6</t>
+          <t>Daniel 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Among these were Daniel, Hananiah, Mishael, and Azariah of the tribe of Judah. 7</t>
+          <t>The king assigned them a daily portion of k the food that the king ate, and of l the wine that he drank. They were to be educated for m three years, and at the end of that time they were to n stand before the king.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Daniel 1:7</t>
+          <t>Daniel 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>And the chief of the eunuchs gave them names: Daniel he called Belteshazzar, Hananiah he called Shadrach, Mishael he called Meshach, and Azariah he called Abednego. Daniel's Faithfulness 8</t>
+          <t>Among these were o Daniel, p Hananiah, p Mishael, and p Azariah of the tribe of Judah.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Daniel 1:8</t>
+          <t>Daniel 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>But Daniel resolved that he would not defile himself with the king's food, or with the wine that he drank. Therefore he asked the chief of the eunuchs to allow him not to defile himself. 9</t>
+          <t>And e the chief of the eunuchs q gave them names: r Daniel he called Belteshazzar, Hananiah he called Shadrach, Mishael he called Meshach, and Azariah he called Abednego. Daniel s Faithfulness</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Daniel 1:10</t>
+          <t>Daniel 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>and the chief of the eunuchs said to Daniel, I r my lord the king, who assigned your food and your drink; for why should he see that you were in worse condition than the youths who are of your own age So you would endanger my head with the king.</t>
+          <t>But Daniel s resolved that he would not t defile himself with k the king s food, or with l the wine that he drank. Therefore he asked the chief of the eunuchs to allow him not to t defile himself.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Daniel 1:11</t>
+          <t>Daniel 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Then Daniel said to the steward whom the chief of the eunuchs had assigned over Daniel, Hananiah, Mishael, and Azariah,</t>
+          <t>u And God gave Daniel favor and compassion in the sight of the chief of the eunuchs,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Daniel 1:12</t>
+          <t>Daniel 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Test your servants for ten days; let us be given vegetables to eat and water to drink.</t>
+          <t>and the chief of the eunuchs said to Daniel, I fear my lord the king, who assigned your food and your drink; for why should he see that you were in worse condition than the youths who are of your own age? So you would endanger my head with the king.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Daniel 1:13</t>
+          <t>Daniel 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Then let our appearance and the appearance of the youths who eat the king's food be observed by you, and deal with your servants according to what you see.</t>
+          <t>Then Daniel said to the steward whom the chief of the eunuchs had assigned over Daniel, Hananiah, Mishael, and Azariah,</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Daniel 1:14</t>
+          <t>Daniel 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>So he listened to them in this matter, and tested them for ten days.</t>
+          <t>Test your servants for v ten days; let us be given vegetables to eat and water to drink.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daniel 1:15</t>
+          <t>Daniel 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>At the end of ten days it was seen that they were better in appearance and fatter in flesh than all the youths who ate the king's food.</t>
+          <t>Then let our appearance and the appearance of the youths who eat k the king s food be observed by you, and deal with your servants according to what you see.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Daniel 1:17</t>
+          <t>Daniel 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>As for these four youths, God gave them learning and skill in all literature and wisdom, and Daniel had understanding in all visions and dreams.</t>
+          <t>So he listened to them in this matter, and tested them for ten days.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Daniel 1:18</t>
+          <t>Daniel 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>At the end of the time, when the king had commanded that they should be brought in, the chief of the eunuchs brought them in before Nebuchadnezzar.</t>
+          <t>At the end of ten days it was seen that they were better in appearance and fatter in flesh than all the youths who ate k the king s food.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Daniel 1:19</t>
+          <t>Daniel 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>And the king spoke with them, and among all of them none was found like Daniel, Hananiah, Mishael, and Azariah. Therefore they stood before the king.</t>
+          <t>w So the steward took away their food and the wine they were to drink, and gave them x vegetables.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Daniel 1:20</t>
+          <t>Daniel 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>And in every matter of wisdom and understanding about which the king inquired of them, he found them ten times better than all the magicians and enchanters that were in all his kingdom.</t>
+          <t>As for these four youths, y God gave them learning and z skill in all literature and wisdom, and Daniel had a understanding in all visions and dreams.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Daniel 1:21</t>
+          <t>Daniel 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>And Daniel was there until the first year of King Cyrus. Nebuchadnezzar's Dream 2</t>
+          <t>At the end of b the time, when the king had commanded that they should be brought in, the chief of the eunuchs brought them in before Nebuchadnezzar.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daniel 2:1</t>
+          <t>Daniel 1:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>In the second year of the reign of Nebuchadnezzar, Nebuchadnezzar had dreams; his spirit was troubled, and his sleep left him. 2</t>
+          <t>And the king spoke with them, and among all of them none was found like Daniel, Hananiah, Mishael, and Azariah. Therefore c they stood before the king.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Daniel 2:2</t>
+          <t>Daniel 1:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Then the king commanded that the magicians, the enchanters, the sorcerers, and the Chaldeans be summoned to tell the king his dreams. So they came in and stood before the king. 3</t>
+          <t>And in every matter of wisdom and understanding about which the king inquired of them, he found them ten times better than all d the magicians and e enchanters that were in all his kingdom.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Daniel 2:3</t>
+          <t>Daniel 1:21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>And the king said to them, I had a dream, and my spirit is troubled to know the dream. 4</t>
+          <t>And Daniel f was there until the first year of g King Cyrus. Nebuchadnezzar s Dream</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Daniel 2:4</t>
+          <t>Daniel 2:1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Then the Chaldeans said to the king in Aramaic, O king, live forever! Tell your servants the dream, and we will show the interpretation. 5</t>
+          <t>In the second year of the reign of Nebuchadnezzar, Nebuchadnezzar had dreams; h his spirit was troubled, and i his sleep left him.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Daniel 2:5</t>
+          <t>Daniel 2:2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The king answered and said to the Chaldeans, The word from me is firm: if you do not make known to me the dream and its interpretation, you shall be torn limb from limb, and your houses shall be laid in ruins. 6</t>
+          <t>Then the king commanded that d the magicians, e the enchanters, the j sorcerers, and k the Chaldeans be summoned to tell the king his dreams. So they came in and l stood before the king.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Daniel 2:6</t>
+          <t>Daniel 2:3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>But if you show the dream and its interpretation, you shall receive from me gifts and rewards and great honor. Therefore show me the dream and its interpretation. 7</t>
+          <t>And the king said to them, I had a dream, and h my spirit is troubled to know the dream.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Daniel 2:7</t>
+          <t>Daniel 2:4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>They answered a second time and said, Let the king tell his servants the dream, and we will show its interpretation. 8</t>
+          <t>Then k the Chaldeans said to the king in Aramaic,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daniel 2:8</t>
+          <t>Daniel 2:5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The king answered and said, I know with certainty that you are trying to gain time, because you see that the word from me is fir m16 9</t>
+          <t>m O king, live forever! Tell your servants the dream, and we will show the interpretation.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Daniel 2:9</t>
+          <t>Daniel 2:5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>if you do not make the dream known to me, there is but one sentence for you. You have agreed to speak lying and corrupt words before me till the times change. Therefore tell me the dream, and I shall know that you can show me its interpretation.</t>
+          <t>The king answered and said to k the Chaldeans, The word from me is firm: if you do not make known to me the dream and its interpretation, you shall be n torn limb from limb, n and your o houses shall be laid in ruins.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Daniel 2:11</t>
+          <t>Daniel 2:6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The thing that the king asks is difficult, and no one can show it to the king except the gods, whose dwelling is not with flesh.</t>
+          <t>But if you show the dream and its interpretation, p you shall receive from me gifts and rewards and great honor. q Therefore show me the dream and its interpretation.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Daniel 2:12</t>
+          <t>Daniel 2:7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Because of this the king was angry and very furious, and commanded that all the wise men of Babylon be destroyed.</t>
+          <t>They answered a second time and said, Let the king tell his servants the dream, and we will show its interpretation.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daniel 2:13</t>
+          <t>Daniel 2:8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>So the decree went out, and the wise men were about to be killed; and they sought Daniel and his companions, to kill them.</t>
+          <t>The king answered and said, I know with certainty that you are trying to r gain time, because you see that the word from me is fir m</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Daniel 2:14</t>
+          <t>Daniel 2:9</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Then Daniel replied with prudence and discretion to Arioch, the captain of the king's guard, who had gone out to kill the wise men of Babylon.</t>
+          <t>if you do not make the dream known to me, s there is but one sentence for you. You have agreed to speak lying and corrupt words before me till t the times change. u Therefore tell me the dream, and I shall know that you can show me its interpretation.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Daniel 2:15</t>
+          <t>Daniel 2:10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>He declare16 d to Arioch, the king's captain, Why is the decree of the king so urgent Then Arioch made the matter known to Daniel.</t>
+          <t>v The Chaldeans answered the king and said, There is not a man on earth who can meet the king s demand, for no great and powerful king has asked such a thing of any magician or enchanter or v Chaldean.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Daniel 2:16</t>
+          <t>Daniel 2:11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>And Daniel went in and requested the king to appoint him a time, that he might show the interpretation to the king. God Reveals Nebuchadnezzar's Dream</t>
+          <t>The thing that the king asks is difficult, and no one can show it to the king except w the gods, whose dwelling is not with flesh.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Daniel 2:17</t>
+          <t>Daniel 2:12</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Then Daniel went to his house and made the matter known to Hananiah, Mishael, and Azariah, his companions,</t>
+          <t>Because of this the king was angry and x very furious, and y commanded that all z the wise men of Babylon be destroyed.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Daniel 2:19</t>
+          <t>Daniel 2:13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Then the mystery was revealed to Daniel in a vision of the night. Then Daniel blessed the God of heaven.</t>
+          <t>So the decree went out, and the wise men were about to be killed; and they sought a Daniel and his companions, to kill them.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Daniel 2:20</t>
+          <t>Daniel 2:14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Daniel answered and said: - Blessed be the name of God forever and ever, - to whom belong wisdom and might. -</t>
+          <t>Then Daniel replied with prudence and discretion to b Arioch, the c captain of the king s guard, who had gone out to kill the wise men of Babylon.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Daniel 2:21</t>
+          <t>Daniel 2:15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>He changes times and seasons; - he removes kings and sets up kings; - he gives wisdom to the wise - and knowledge to those who have understanding; -</t>
+          <t>He declare d to Arioch, the king s captain, Why is the decree of the king d so urgent? Then Arioch made the matter known to Daniel.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Daniel 2:22</t>
+          <t>Daniel 2:16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>he reveals deep and hidden things; - he knows what is in the darkness, - and the light dwells with him. -</t>
+          <t>And Daniel went in and requested the king to appoint him a time, that he might show the interpretation to the king. God Reveals Nebuchadnezzar s Dream</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Daniel 2:23</t>
+          <t>Daniel 2:17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>To you, O God of my fathers, - I give thanks and praise, - for you have given me wisdom and might, - and have now made known to me what we asked of you, - for you have made known to us the king's matter.</t>
+          <t>Then Daniel went to his house and made the matter known to e Hananiah, e Mishael, and e Azariah, his companions,</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Daniel 2:24</t>
+          <t>Daniel 2:18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Therefore Daniel went in to Arioch, whom the king had appointed to destroy the wise men of Babylon. He went and said thus to him: Do not destroy the wise men of Babylon; bring me in before the king, and I will show the king the interpretation.</t>
+          <t>f and told them to seek mercy from the g God of heaven concerning this mystery, so that Daniel and his companions might not h be destroyed with the rest of the wise men of Babylon.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Daniel 2:25</t>
+          <t>Daniel 2:19</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Then Arioch brought in Daniel before the king in haste and said thus to him: I have found among the exiles from Judah a man who will make known to the king the interpretation.</t>
+          <t>Then the mystery was revealed to Daniel in i a vision of the night. Then Daniel j blessed the g God of heaven.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Daniel 2:26</t>
+          <t>Daniel 2:20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The king declared to Daniel, whose name was Belteshazzar, Are you able to make known to me the dream that I have seen and its interpretation</t>
+          <t>Daniel answered and said: k Blessed be the name of God forever and ever, l to whom belong wisdom and might.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Daniel 2:27</t>
+          <t>Daniel 2:21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Daniel answered the king and said, No wise men, enchanters, magicians, or astrologers can show to the king the mystery that the king has asked,</t>
+          <t>m He changes times and seasons; n he removes kings and sets up kings; o he gives wisdom to the wise o and knowledge to those who have understanding;</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Daniel 2:28</t>
+          <t>Daniel 2:22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>but there is a God in heaven who reveals mysteries, and he has made known to King Nebuchadnezzar what will be in the latter days. Your dream and the visions of your head as you lay in bed are these:</t>
+          <t>p he reveals deep and hidden things; p he knows what is in the darkness, q and the light dwells with him.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Daniel 2:29</t>
+          <t>Daniel 2:23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>To you, O king, as you lay in bed came thoughts of what would be after this, and he who reveals mysteries made known to you what is to be.</t>
+          <t>To you, O r God of my fathers, s I give thanks and praise, for t you have given me wisdom and might, and have now made known to me what u we asked of you, for you have made known to us the king s matter.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Daniel 2:30</t>
+          <t>Daniel 2:24</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>But as for me, this mystery has been revealed to me, not because of any wisdom that I have more than all the living, but in order that the interpretation may be made known to the king, and that you may know the thoughts of your mind. Daniel Interprets the Dream</t>
+          <t>Therefore Daniel went in to v Arioch, whom the king had appointed to destroy the wise men of Babylon. He went and said thus to him: Do not destroy the wise men of Babylon; bring me in before the king, and I will show the king the interpretation.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Daniel 2:31</t>
+          <t>Daniel 2:25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>You saw, O king, and behold, a great image. This image, mighty and of exceeding brightness, stood before you, and its appearance was frightening.</t>
+          <t>Then v Arioch brought in Daniel before the king w in haste and said thus to him: I have found x among the exiles from Judah a man who will make known to the king the interpretation.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Daniel 2:34</t>
+          <t>Daniel 2:26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>As you looked, a stone was cut out by no human hand, and it struck the image on its feet of iron and clay, and broke them in pieces.</t>
+          <t>The king declared to Daniel, y whose name was Belteshazzar, z Are you able to make known to me the dream that I have seen and its interpretation?</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Daniel 2:35</t>
+          <t>Daniel 2:27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Then the iron, the clay, the bronze, the silver, and the gold, all together were broken in pieces, and became like the chaff of the summer threshing floors; and the wind carried them away, so that not a trace of them could be found. But the stone that struck the image became a great mountain and filled the whole earth.</t>
+          <t>Daniel answered the king and said, No wise men, a enchanters, a magicians, or b astrologers can show to the king the mystery that the king has asked,</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Daniel 2:36</t>
+          <t>Daniel 2:28</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>This was the dream. Now we will tell the king its interpretation.</t>
+          <t>but c there is a God in heaven who reveals mysteries, and he has made known to King Nebuchadnezzar d what will be in the latter days. Your dream and e the visions of your head as you lay in bed are these:</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Daniel 2:37</t>
+          <t>Daniel 2:29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>You, O king, the king of kings, to whom the God of heaven has given the kingdom, the power, and the might, and the glory,</t>
+          <t>To you, O king, as you lay in bed came thoughts of what would be after this, f and he who reveals mysteries made known to you what is to be.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Daniel 2:38</t>
+          <t>Daniel 2:30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>and into whose hand he has given, wherever they dwell, the children of man, the beasts of the field, and the birds of the heavens, making you rule over them al l16 you are the head of gold.</t>
+          <t>But g as for me, this mystery has been revealed to me, not because of any wisdom that I have more than all the living, but in order that the interpretation may be made known to the king, and that h you may know the thoughts of your mind. Daniel Interprets the Dream</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Daniel 2:40</t>
+          <t>Daniel 2:31</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>And there shall be a fourth kingdom, strong as iron, because iron breaks to pieces and shatters all things. And like iron that crushes, it shall break and crush all these.</t>
+          <t>You saw, O king, and behold, a great image. This image, mighty and of exceeding brightness, stood before you, and its appearance was frightening.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Daniel 2:41</t>
+          <t>Daniel 2:32</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>And as you saw the feet and toes, partly of potter's clay and partly of iron, it shall be a divided kingdom, but some of the firmness of iron shall be in it, just as you saw iron mixed with the soft clay.</t>
+          <t>i The head of this image was of fine gold, j its chest and arms of silver, its middle and j thighs of bronze,</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Daniel 2:42</t>
+          <t>Daniel 2:33</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>And as the toes of the feet were partly iron and partly clay, so the kingdom shall be partly strong and partly brittle.</t>
+          <t>k its legs of iron, its feet partly of iron and partly of clay.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Daniel 2:43</t>
+          <t>Daniel 2:34</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>As you saw the iron mixed with soft clay, so they will mix with one another in marriage, but they will not hold together, just as iron does not mix with clay.</t>
+          <t>As you looked, a stone was cut out l by no human hand, and it struck the image on its feet of iron and clay, and m broke them in pieces.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Daniel 2:44</t>
+          <t>Daniel 2:35</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>And in the days of those kings the God of heaven will set up a kingdom that shall never be destroyed, nor shall the kingdom be left to another people. It shall break in pieces all these kingdoms and bring them to an end, and it shall stand forever,</t>
+          <t>Then the iron, the clay, the bronze, the silver, and the gold, all together were broken in pieces, and became n like the chaff of the summer threshing floors; and the wind carried them away, so that o not a trace of them could be found. But the stone that struck the image became p a great mountain q and filled the whole earth.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Daniel 2:45</t>
+          <t>Daniel 2:36</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>just as you saw that a stone was cut from a mountain by no human hand, and that it broke in pieces the iron, the bronze, the clay, the silver, and the gold. A great God has made known to the king what shall be after this. The dream is certain, and its interpretation sure. Daniel Is Promoted</t>
+          <t>This was the dream. Now we will tell the king its interpretation.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Daniel 2:46</t>
+          <t>Daniel 2:37</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Then King Nebuchadnezzar fell upon his face and paid homage to Daniel, and commanded that an offering and incense be offered up to him.</t>
+          <t>You, O king, r the king of kings, to whom s the God of heaven t has given the kingdom, the power, and the might, and the glory,</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Daniel 2:47</t>
+          <t>Daniel 2:38</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The king answered and said to Daniel, Truly, your God is God of gods and Lord of kings, and a revealer of mysteries, for you have been able to reveal this mystery.</t>
+          <t>and into whose hand he has given, wherever they dwell, the children of man, u the beasts of the field, and the birds of the heavens, making you rule over them al l you are v the head of gold.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Daniel 2:48</t>
+          <t>Daniel 2:39</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Then the king gave Daniel high honors and many great gifts, and made him ruler over the whole province of Babylon and chief prefect over all the wise men of Babylon.</t>
+          <t>w Another kingdom inferior to you shall arise after you, and yet a third kingdom v of bronze, x which shall rule over all the earth.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Daniel 2:49</t>
+          <t>Daniel 2:40</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Daniel made a request of the king, and he appointed Shadrach, Meshach, and Abednego over the affairs of the province of Babylon. But Daniel remained at the king's court. Nebuchadnezzar's Golden Image 3</t>
+          <t>And y there shall be a fourth kingdom, strong as iron, because iron z breaks to pieces and shatters all things. And like iron that crushes, it shall z break and crush all these.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Daniel 3:1</t>
+          <t>Daniel 2:41</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>King Nebuchadnezzar made an image of gold, whose height was sixty cubit16's and its breadth six cubits. He set it up on the plain of Dura, in the province of Babylon. 2</t>
+          <t>And as you saw a the feet and toes, partly of potter s clay and partly of iron, it shall be a divided kingdom, but some of the y firmness of iron shall be in it, just as you saw iron mixed with the soft clay.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Daniel 3:2</t>
+          <t>Daniel 2:42</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Then King Nebuchadnezzar sent to gather the satraps, the prefects, and the governors, the counselors, the treasurers, the justices, the magistrates, and all the officials of the provinces to come to the dedication of the image that King Nebuchadnezzar had set up. 3</t>
+          <t>And as the toes of the feet were partly iron and partly clay, so the kingdom shall be partly strong and partly brittle.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Daniel 3:3</t>
+          <t>Daniel 2:43</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Then the satraps, the prefects, and the governors, the counselors, the treasurers, the justices, the magistrates, and all the officials of the provinces gathered for the dedication of the image that King Nebuchadnezzar had set up. And they stood before the image that Nebuchadnezzar had set up. 4</t>
+          <t>As you saw the iron mixed with soft clay, so they will mix with one another in marriage, but they will not hold together, just as iron does not mix with clay.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Daniel 3:4</t>
+          <t>Daniel 2:44</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>And the herald proclaimed aloud, You are commanded, O peoples, nations, and languages, 5</t>
+          <t>And in the days of those kings b the God of heaven will set up c a kingdom that shall never be destroyed, nor shall the kingdom be left to another people. d It shall break in pieces all these kingdoms and bring them to an end, and c it shall stand forever,</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Daniel 3:5</t>
+          <t>Daniel 2:45</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>that when you hear the sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, you are to fall down and worship the golden image that King Nebuchadnezzar has set up. 6</t>
+          <t>just as e you saw that f a stone was cut from a mountain by no human hand, and that d it broke in pieces the iron, the bronze, the clay, the silver, and the gold. A g great God has made known to the king what shall be after this. The dream is certain, and its interpretation sure. Daniel Is Promoted</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Daniel 3:6</t>
+          <t>Daniel 2:46</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>And whoever does not fall down and worship shall immediately be cast into a burning fiery furnace. 7</t>
+          <t>Then King Nebuchadnezzar h fell upon his face and i paid homage to Daniel, and commanded that j an offering and k incense be offered up to him.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Daniel 3:7</t>
+          <t>Daniel 2:47</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Therefore, as soon as all the peoples heard the sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, all the peoples, nations, and languages fell down and worshiped the golden image that King Nebuchadnezzar had set up. The Fiery Furnace 8</t>
+          <t>The king answered and said to Daniel, Truly, your l God is God of gods and m Lord of kings, and n a revealer of mysteries, for you have been able to reveal this mystery.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Daniel 3:8</t>
+          <t>Daniel 2:48</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Therefore at that time certain Chaldeans came forward and maliciously accused the Jews. 9</t>
+          <t>Then the king gave Daniel high honors and many great o gifts, and made him ruler over the whole p province of Babylon and q chief prefect over all the wise men of Babylon.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Daniel 3:9</t>
+          <t>Daniel 2:49</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>They declare16 d to King Nebuchadnezzar, O king, live forever!</t>
+          <t>Daniel made a request of the king, and he r appointed s Shadrach, Meshach, and Abednego over the affairs of p the province of Babylon. But Daniel t remained at the king s court. Nebuchadnezzar s Golden Image</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Daniel 3:10</t>
+          <t>Daniel 3:1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>You, O king, have made a decree, that every man who hears the sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, shall fall down and worship the golden image.</t>
+          <t>King Nebuchadnezzar made an image of gold, whose height was sixty cubit s and its breadth six cubits. He set it up on u the plain of Dura, in v the province of Babylon.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Daniel 3:11</t>
+          <t>Daniel 3:2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>And whoever does not fall down and worship shall be cast into a burning fiery furnace.</t>
+          <t>Then King Nebuchadnezzar sent to gather w the satraps, the prefects, and x the governors, the counselors, the treasurers, the justices, the magistrates, and all the officials of the provinces to come to the dedication of the image that King Nebuchadnezzar had set up.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Daniel 3:12</t>
+          <t>Daniel 3:3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>There are certain Jews whom you have appointed over the affairs of the province of Babylon: Shadrach, Meshach, and Abednego. These men, O king, pay no attention to you; they do not serve your gods or worship the golden image that you have set up.</t>
+          <t>Then w the satraps, the prefects, and the governors, the counselors, the treasurers, the justices, the magistrates, and all the officials of the provinces gathered for the dedication of the image that King Nebuchadnezzar had set up. And they stood before the image that Nebuchadnezzar had set up.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Daniel 3:13</t>
+          <t>Daniel 3:4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Then Nebuchadnezzar in furious rage commanded that Shadrach, Meshach, and Abednego be brought. So they brought these men before the king.</t>
+          <t>And the herald y proclaimed aloud, You are commanded, O z peoples, nations, and languages,</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Daniel 3:14</t>
+          <t>Daniel 3:5</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nebuchadnezzar answered and said to them, Is it true, O Shadrach, Meshach, and Abednego, that you do not serve my gods or worship the golden image that I have set up</t>
+          <t>that when you hear the a sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, you b are to fall down and worship the golden image that King Nebuchadnezzar has set up.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Daniel 3:15</t>
+          <t>Daniel 3:6</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Now if you are ready when you hear the sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, to fall down and worship the image that I have made, well and good. But if you do not worship, you shall immediately be cast into a burning fiery furnace. And who is the god who will deliver you out of my hands</t>
+          <t>And whoever does not fall down and worship shall immediately c be cast into a burning fiery furnace.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Daniel 3:17</t>
+          <t>Daniel 3:7</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>If this be so, our God whom we serve is able to deliver us from the burning fiery furnace, and he will deliver us out of your hand, O king.</t>
+          <t>Therefore, as soon as all the peoples heard the sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, all z the peoples, nations, and languages fell down and worshiped the golden image that King Nebuchadnezzar had set up. The Fiery Furnace</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Daniel 3:18</t>
+          <t>Daniel 3:8</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>But if not, be it known to you, O king, that we will not serve your gods or worship the golden image that you have set up.</t>
+          <t>Therefore at that time certain d Chaldeans e came forward and maliciously accused the Jews.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Daniel 3:19</t>
+          <t>Daniel 3:9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Then Nebuchadnezzar was filled with fury, and the expression of his face was changed against Shadrach, Meshach, and Abednego. He ordered the furnace heated seven times more than it was usually heated.</t>
+          <t>They declare d to King Nebuchadnezzar, O king, live forever!</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Daniel 3:20</t>
+          <t>Daniel 3:10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>And he ordered some of the mighty men of his army to bind Shadrach, Meshach, and Abednego, and to cast them into the burning fiery furnace.</t>
+          <t>You, O king, f have made a decree, that every man who g hears the sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, g shall fall down and worship the golden image.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Daniel 3:21</t>
+          <t>Daniel 3:11</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Then these men were bound in their cloaks, their tunics, their hats, and their other garments, and they were thrown into the burning fiery furnace.</t>
+          <t>And whoever does not fall down and worship c shall be cast into a burning fiery furnace.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Daniel 3:22</t>
+          <t>Daniel 3:12</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Because the king's order was urgent and the furnace overheated, the flame of the fire killed those men who took up Shadrach, Meshach, and Abednego.</t>
+          <t>There are certain Jews whom you have h appointed over the affairs of v the province of Babylon: i Shadrach, Meshach, and Abednego. These men, O king, j pay no attention to you; they do not serve your gods or worship the golden image that you have set up.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Daniel 3:23</t>
+          <t>Daniel 3:13</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>And these three men, Shadrach, Meshach, and Abednego, fell bound into the burning fiery furnace.</t>
+          <t>Then Nebuchadnezzar k in furious rage commanded that i Shadrach, Meshach, and Abednego be brought. So they brought these men before the king.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Daniel 3:24</t>
+          <t>Daniel 3:14</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Then King Nebuchadnezzar was astonished and rose up in haste. He declared to his counselors, Did we not cast three men bound into the fire They answered and said to the king, True, O king.</t>
+          <t>Nebuchadnezzar answered and said to them, Is it true, O Shadrach, Meshach, and Abednego, that you do not serve my gods or worship the golden image that I have set up?</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Daniel 3:25</t>
+          <t>Daniel 3:15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>He answered and said, But I see four men unbound, walking in the midst of the fire, and they are not hurt; and the appearance of the fourth is like a son of the gods.</t>
+          <t>Now if you are ready when l you hear the sound of the horn, pipe, lyre, trigon, harp, bagpipe, and every kind of music, to fall down and worship the image that I have made, well and good. But if you do not worship, c you shall immediately be cast into a burning fiery furnace. And m who is the god who will deliver you out of my hands?</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Daniel 3:26</t>
+          <t>Daniel 3:16</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Then Nebuchadnezzar came near to the door of the burning fiery furnace; he declared, Shadrach, Meshach, and Abednego, servants of the Most High God, come out, and come here! Then Shadrach, Meshach, and Abednego came out from the fire.</t>
+          <t>i Shadrach, Meshach, and Abednego answered and said to the king, O Nebuchadnezzar, we have no need to answer you in this matter.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Daniel 3:27</t>
+          <t>Daniel 3:17</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>And the satraps, the prefects, the governors, and the king's counselors gathered together and saw that the fire had not had any power over the bodies of those men. The hair of their heads was not singed, their cloaks were not harmed, and no smell of fire had come upon them.</t>
+          <t>If this be so, n our God whom we serve is able to deliver us from the burning fiery furnace, and he will deliver us out of your hand, O king.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Daniel 3:28</t>
+          <t>Daniel 3:18</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Nebuchadnezzar answered and said, Blessed be the God of Shadrach, Meshach, and Abednego, who has sent his angel and delivered his servants, who trusted in him, and set asid e the king's command, and yielded up their bodies rather than serve and worship any god except their own God.</t>
+          <t>But if not, be it known to you, O king, that we will not serve your gods or worship the golden image that you have set up.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Daniel 3:29</t>
+          <t>Daniel 3:19</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Therefore I make a decree: Any people, nation, or language that speaks anything against the God of Shadrach, Meshach, and Abednego shall be torn limb from limb, and their houses laid in ruins, for there is no other god who is able to rescue in this way.</t>
+          <t>Then Nebuchadnezzar was o filled with fury, and the expression of his face p was changed against i Shadrach, Meshach, and Abednego. He ordered the furnace heated seven times more than it was usually heated.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Daniel 3:30</t>
+          <t>Daniel 3:20</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Then the king promoted Shadrach, Meshach, and Abednego in the province of Babylon. Nebuchadnezzar Praises God 4 1</t>
+          <t>And he ordered some of the mighty men of his army q to bind i Shadrach, Meshach, and Abednego, and to cast them into the burning fiery furnace.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Daniel 4:1</t>
+          <t>Daniel 3:21</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>King Nebuchadnezzar to all peoples, nations, and languages, that dwell in all the earth: Peace be multiplied to you! 2</t>
+          <t>Then these men were q bound in their cloaks, their tunics, their hats, and their other garments, and they were thrown into the burning fiery furnace.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Daniel 4:2</t>
+          <t>Daniel 3:22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>It has seemed good to me to show the signs and wonders that the Most High God has done for me. -</t>
+          <t>Because the king s order was r urgent and the furnace overheated, the flame of the fire killed those men who took up s Shadrach, Meshach, and Abednego.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Daniel 4:3</t>
+          <t>Daniel 3:23</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>How great are his signs, - how mighty his wonders! - His kingdom is an everlasting kingdom, - and his dominion endures from generation to generation. Nebuchadnezzar's Second Dream 4</t>
+          <t>And these three men, Shadrach, Meshach, and Abednego, fell q bound into the burning fiery furnace.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Daniel 4:5</t>
+          <t>Daniel 3:24</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>I saw a dream that made me afraid. As I lay in bed the fancies and the visions of my head alarmed me. 6</t>
+          <t>Then King Nebuchadnezzar was t astonished and rose up u in haste. He declared to his v counselors, Did we not cast three men w bound into the fire? They answered and said to the king, True, O king.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Daniel 4:6</t>
+          <t>Daniel 3:25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>So I made a decree that all the wise men of Babylon should be brought before me, that they might make known to me the interpretation of the dream. 7</t>
+          <t>He answered and said, But I see four men unbound, x walking in the midst of the fire, and they y are not hurt; and the appearance of the fourth is like z a son of the gods.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Daniel 4:7</t>
+          <t>Daniel 3:26</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Then the magicians, the enchanters, the Chaldeans, and the astrologers came in, and I told them the dream, but they could not make known to me its interpretation. 8</t>
+          <t>Then Nebuchadnezzar came near to the door of the burning fiery furnace; he declared, s Shadrach, Meshach, and Abednego, servants of the a Most High God, come out, and come here! Then s Shadrach, Meshach, and Abednego came out from the fire.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Daniel 4:8</t>
+          <t>Daniel 3:27</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>At last Daniel came in before m e he who was named Belteshazzar after the name of my god, and in whom is the spirit of the holy god16's and I told him the dream, saying, 9</t>
+          <t>And the b satraps, the prefects, the governors, and v the king s counselors gathered together and saw that c the fire had not had any power over the bodies of those men. The hair of their heads was not singed, their d cloaks were not harmed, and no smell of fire had come upon them.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Daniel 4:9</t>
+          <t>Daniel 3:28</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>O lteshazzar, chief of the magicians, because I know that the spirit of the holy gods is in you and that no mystery is too difficult for you, tell me the visions of my dream that I saw and their interpretation.</t>
+          <t>Nebuchadnezzar answered and said, Blessed be the God of s Shadrach, Meshach, and Abednego, who e has sent his angel and f delivered his servants, who g trusted in him, and set asid e the king s command, and yielded up their bodies rather than h serve and worship any god except their own God.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Daniel 4:13</t>
+          <t>Daniel 3:29</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>I saw in the visions of my head as I lay in bed, and behold, a watcher, a holy one, came down from heaven.</t>
+          <t>Therefore i I make a decree: Any j people, nation, or language that speaks anything against the God of s Shadrach, Meshach, and Abednego k shall be torn limb from limb, and their houses laid in ruins, for there is no other god who is able to rescue in this way.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Daniel 4:14</t>
+          <t>Daniel 3:30</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>He proclaimed aloud and said thus: Chop down the tree and lop off its branches, strip off its leaves and scatter its fruit. Let the beasts flee from under it and the birds from its branches.</t>
+          <t>Then the king promoted s Shadrach, Meshach, and Abednego in l the province of Babylon. Nebuchadnezzar Praises God</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Daniel 4:15</t>
+          <t>Daniel 4:1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>But leave the stump of its roots in the earth, bound with a band of iron and bronze, amid the tender grass of the field. Let him be wet with the dew of heaven. Let his portion be with the beasts in the grass of the earth.</t>
+          <t>King Nebuchadnezzar to all m peoples, nations, and languages, n that dwell in all the earth: o Peace be multiplied to you!</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Daniel 4:16</t>
+          <t>Daniel 4:2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Let his mind be changed from a man's, and let a beast's mind be given to him; and let seven periods of time pass over him.</t>
+          <t>It has seemed good to me to show the p signs and wonders that the q Most High God has done for me.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Daniel 4:17</t>
+          <t>Daniel 4:3</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>The sentence is by the decree of the watchers, the decision by the word of the holy ones, to the end that the living may know that the Most High rules the kingdom of men and gives it to whom he will and sets over it the lowliest of men.</t>
+          <t>How great are p his signs, how mighty his p wonders! r His kingdom is an everlasting kingdom, r and his dominion endures from generation to generation. Nebuchadnezzar s Second Dream</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Daniel 4:18</t>
+          <t>Daniel 4:4</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>This dream I, King Nebuchadnezzar, saw. And you, O Belteshazzar, tell me the interpretation, because all the wise men of my kingdom are not able to make known to me the interpretation, but you are able, for the spirit of the holy gods is in you. Daniel Interprets the Second Dream</t>
+          <t>I, Nebuchadnezzar, was at ease in my house and prospering in my palace.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Daniel 4:19</t>
+          <t>Daniel 4:5</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Then Daniel, whose name was Belteshazzar, was dismayed for a while, and his thoughts alarmed him. The king answered and said, Belteshazzar, let not the dream or the interpretation alarm you. Belteshazzar answered and said, My lord, may the dream be for those who hate you and its interpretation for your enemies!</t>
+          <t>I saw a dream that made me afraid. As I lay in bed the fancies and s the visions of my head alarmed me.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Daniel 4:22</t>
+          <t>Daniel 4:6</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>it is you, O king, who have grown and become strong. Your greatness has grown and reaches to heaven, and your dominion to the ends of the earth.</t>
+          <t>So t I made a decree that u all the wise men of Babylon should be brought before me, that they might make known to me the interpretation of the dream.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Daniel 4:23</t>
+          <t>Daniel 4:7</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>And because the king saw a watcher, a holy one, coming down from heaven and saying, Chop down the tree and destroy it, but leave the stump of its roots in the earth, bound with a band of iron and bronze, in the tender grass of the field, and let him be wet with the dew of heaven, and let his portion be with the beasts of the field, till seven periods of time pass over him,</t>
+          <t>Then v the magicians, the enchanters, the Chaldeans, and the astrologers came in, and I told them the dream, but w they could not make known to me its interpretation.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Daniel 4:24</t>
+          <t>Daniel 4:8</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>this is the interpretation, O king: It is a decree of the Most High, which has come upon my lord the king,</t>
+          <t>At last Daniel came in before m e he who was named x Belteshazzar after the name of my god, and in whom is y the spirit of the holy god s and I told him the dream, saying,</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Daniel 4:26</t>
+          <t>Daniel 4:9</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>And as it was commanded to leave the stump of the roots of the tree, your kingdom shall be confirmed for you from the time that you know that Heaven rules.</t>
+          <t>O Belteshazzar, z chief of the magicians, because I know that y the spirit of the holy gods is in you and that no a mystery is too difficult for you, tell me s the visions of my dream that I saw and their interpretation.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Daniel 4:27</t>
+          <t>Daniel 4:10</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Therefore, O king, let my counsel be acceptable to you: break off your sins by practicing righteousness, and your iniquities by showing mercy to the oppressed, that there may perhaps be a lengthening of your prosperity. Nebuchadnezzar's Humiliation</t>
+          <t>s The visions of my head as I lay in bed were these: I saw, and b behold, a tree in the midst of the earth, and its height was great.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Daniel 4:28</t>
+          <t>Daniel 4:11</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>All this came upon King Nebuchadnezzar.</t>
+          <t>c The tree grew and became strong, and its top reached to heaven, and it was visible to the end of the whole earth.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Daniel 4:29</t>
+          <t>Daniel 4:12</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>At the end of twelve months he was walking on the roof of the royal palace of Babylon,</t>
+          <t>d Its leaves were beautiful and its fruit abundant, and in it was food for all. e The beasts of the field found shade under it, and e the birds of the heavens lived in its branches, and all flesh was fed from it.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Daniel 4:30</t>
+          <t>Daniel 4:13</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>and the king answered and said, Is not this great Babylon, which I have built by my mighty power as a royal residence and for the glory of my majesty</t>
+          <t>I saw in s the visions of my head as I lay in bed, and behold, f a watcher, g a holy one, came down from heaven.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Daniel 4:33</t>
+          <t>Daniel 4:14</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Immediately the word was fulfilled against Nebuchadnezzar. He was driven from among men and ate grass like an ox, and his body was wet with the dew of heaven till his hair grew as long as eagles feathers, and his nails were like birds claws. Nebuchadnezzar Restored</t>
+          <t>He h proclaimed aloud and said thus: i Chop down the tree and j lop off its branches, j strip off its leaves and scatter its fruit. j Let the beasts flee from under it and the birds from its branches.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Daniel 4:35</t>
+          <t>Daniel 4:15</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>all the inhabitants of the earth are accounted as nothing, - and he does according to his will among the host of heaven and among the inhabitants of the earth; - and none can stay his hand - or say to him, What have you done</t>
+          <t>But leave the stump of its roots in the earth, bound with a band of iron and bronze, amid the tender grass of the field. Let him be wet with the dew of heaven. Let his portion be with the beasts in the grass of the earth.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Daniel 4:36</t>
+          <t>Daniel 4:16</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>At the same time my reason returned to me, and for the glory of my kingdom, my majesty and splendor returned to me. My counselors and my lords sought me, and I was established in my kingdom, and still more greatness was added to me.</t>
+          <t>Let his mind be changed from a man s, and let a beast s mind be given to him; k and let seven periods of time l pass over him.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Daniel 4:37</t>
+          <t>Daniel 4:17</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Now I, Nebuchadnezzar, praise and extol and honor the King of heaven, for all his works are right and his ways are just; and those who walk in pride he is able to humble. The Handwriting on the Wall 5</t>
+          <t>The sentence is by the decree of f the watchers, the decision by the word of g the holy ones, to the end that the living may know that the Most High m rules the kingdom of men n and gives it to whom he will and o sets over it the lowliest of men.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Daniel 5:3</t>
+          <t>Daniel 4:18</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Then they brought in the golden vessels that had been taken out of the temple, the house of God in Jerusalem, and the king and his lords, his wives, and his concubines drank from them. 4</t>
+          <t>This dream I, King Nebuchadnezzar, saw. And you, O p Belteshazzar, tell me the interpretation, because q all the wise men of my kingdom are not able to make known to me the interpretation, but you are able, for r the spirit of the holy gods is in you. Daniel Interprets the Second Dream</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Daniel 5:4</t>
+          <t>Daniel 4:19</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>They drank wine and praised the gods of gold and silver, bronze, iron, wood, and stone. 5</t>
+          <t>Then Daniel, whose name was p Belteshazzar, was s dismayed for a while, and t his thoughts alarmed him. The king answered and said, Belteshazzar, let not the dream or the interpretation alarm you. Belteshazzar answered and said, My lord, u may the dream be for those who hate you u and its interpretation for your enemies!</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Daniel 5:8</t>
+          <t>Daniel 4:20</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Then all the king's wise men came in, but they could not read the writing or make known to the king the interpretation. 9</t>
+          <t>v The tree you saw, which grew and became strong, so that its top reached to heaven, and it was visible to the end of the whole earth,</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Daniel 5:9</t>
+          <t>Daniel 4:21</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Then King Belshazzar was greatly alarmed, and his color changed, and his lords were perplexed.</t>
+          <t>w whose leaves were beautiful and its fruit abundant, and in which was food for all, under which beasts of the field found shade, and in whose branches the birds of the heavens live d</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Daniel 5:101600</t>
+          <t>Daniel 4:22</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>The queen, because of the words of the king and his lords, came into the banqueting hall, and the queen declared, O king, live forever! Let not your thoughts alarm you or your color change.</t>
+          <t>x it is you, O king, who have grown and become strong. y Your greatness has grown and reaches to heaven, y and your dominion to the ends of the earth.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Daniel 5:111600</t>
+          <t>Daniel 4:23</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>There is a man in your kingdom in whom is the spirit of the holy gods. In the days of your father, light and understanding and wisdom like the wisdom of the gods were found in him, and King Nebuchadnezzar, your fathe r your father the kin1600 g made him chief of the magicians, enchanters, Chaldeans, and astrologers,</t>
+          <t>And because the king saw z a watcher, a holy one, coming down from heaven and saying, a Chop down the tree and destroy it, but leave the stump of its roots in the earth, bound with a band of iron and bronze, in the tender grass of the field, and let him be wet with the dew of heaven, and let his portion be with the beasts of the field, till b seven periods of time pass over him,</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Daniel 5:13</t>
+          <t>Daniel 4:24</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Then Daniel was brought in before the king. The king answered and said to Daniel, You are that Daniel, one of the exiles of Judah, whom the king my father brought from Judah.</t>
+          <t>this is the interpretation, O king: It is a decree of the Most High, which has come upon my lord the king,</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Daniel 5:14</t>
+          <t>Daniel 4:25</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>I have heard of you that the spirit of the god16's is in you, and that light and understanding and excellent wisdom are found in you.</t>
+          <t>c that you shall be driven from among men, and your dwelling shall be with the beasts of the field. You shall be made d to eat grass like an ox, and you shall be wet with the dew of heaven, and b seven periods of time shall pass over you, till e you know that the Most High rules the kingdom of men and gives it to whom he will.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Daniel 5:15</t>
+          <t>Daniel 4:26</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Now the wise men, the enchanters, have been brought in before me to read this writing and make known to me its interpretation, but they could not show the interpretation of the matter.</t>
+          <t>And as it was commanded f to leave the stump of the roots of the tree, your kingdom shall be confirmed for you from the time that you know that Heaven rules.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Daniel 5:17</t>
+          <t>Daniel 4:27</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Then Daniel answered and said before the king, Let your gifts be for yourself, and give your rewards to another. Nevertheless, I will read the writing to the king and make known to him the interpretation.</t>
+          <t>Therefore, O king, let my counsel be acceptable to you: break off your sins by g practicing righteousness, h and your iniquities by showing mercy to the oppressed, i that there may perhaps be a lengthening of your prosperity. Nebuchadnezzar s Humiliation</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Daniel 5:18</t>
+          <t>Daniel 4:28</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>O king, the Most High God gave Nebuchadnezzar your father kingship and greatness and glory and majesty.</t>
+          <t>All this came upon King Nebuchadnezzar.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Daniel 5:19</t>
+          <t>Daniel 4:29</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>And because of the greatness that he gave him, all peoples, nations, and languages trembled and feared before him. Whom he would, he killed, and whom he would, he kept alive; whom he would, he raised up, and whom he would, he humbled.</t>
+          <t>At the end of twelve months he was walking on the roof of the royal palace of Babylon,</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Daniel 5:20</t>
+          <t>Daniel 4:30</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>But when his heart was lifted up and his spirit was hardened so that he dealt proudly, he was brought down from his kingly throne, and his glory was taken from him.</t>
+          <t>and the king answered and said, j Is not this great Babylon, which I have built by k my mighty power as a royal residence and for k the glory of my majesty?</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Daniel 5:22</t>
+          <t>Daniel 4:31</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>And you his son, Belshazzar, have not humbled your heart, though you knew all this,</t>
+          <t>l While the words were still in the king s mouth, there fell a voice from heaven, O King Nebuchadnezzar, to you it is spoken: The kingdom has departed from you,</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Daniel 5:23</t>
+          <t>Daniel 4:32</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>but you have lifted up yourself against the Lord of heaven. And the vessels of his house have been brought in before you, and you and your lords, your wives, and your concubines have drunk wine from them. And you have praised the gods of silver and gold, of bronze, iron, wood, and stone, which do not see or hear or know, but the God in whose hand is your breath, and whose are all your ways, you have not honored.</t>
+          <t>m and you shall be driven from among men, and your dwelling shall be with the beasts of the field. And you shall be made to eat grass like an ox, and seven periods of time shall pass over you, m until you know that the Most High rules the kingdom of men and gives it to whom he will.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Daniel 5:24</t>
+          <t>Daniel 4:33</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Then from his presence the hand was sent, and this writing was inscribed.</t>
+          <t>Immediately the word was fulfilled against Nebuchadnezzar. m He was driven from among men and ate grass like an ox, and his body was wet with the dew of heaven till his hair grew as long as eagles feathers, and his nails were like birds claws. Nebuchadnezzar Restored</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Daniel 5:25</t>
+          <t>Daniel 4:34</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>And this is the writing that was inscribed: Mene16 , Mene16 , Tekel16 , and Parsin16 .</t>
+          <t>n At the end of the days I, Nebuchadnezzar, lifted my eyes to heaven, and o my reason returned to me, and I blessed the Most High, and praised and honored p him who lives forever, q for his dominion is an everlasting dominion, and q his kingdom endures from generation to generation;</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Daniel 5:26</t>
+          <t>Daniel 4:35</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>This is the interpretation of the matter: Mene16 , God has numbere16 d the days of your kingdom and brought it to an end;</t>
+          <t>r all the inhabitants of the earth are accounted as nothing, and s he does according to his will among the host of heaven and among the inhabitants of the earth; t and none can stay his hand or u say to him, What have you done?</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Daniel 5:29</t>
+          <t>Daniel 4:36</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Then Belshazzar gave the command, and Daniel was clothed with purple, a chain of gold was put around his neck, and a proclamation was made about him, that he should be the third ruler in the kingdom.</t>
+          <t>At the same time v my reason returned to me, and for w the glory of my kingdom, w my majesty and splendor returned to me. x My counselors and y my lords sought me, and I was established in my kingdom, and still more greatness was z added to me.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Daniel 6:1</t>
+          <t>Daniel 4:37</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>It pleased Darius to set over the kingdom satraps, to be throughout the whole kingdom; 2</t>
+          <t>Now I, Nebuchadnezzar, a praise and extol and honor the b King of heaven, c for all his works are right and his ways are just; and d those who walk in pride he is able to humble. The Handwriting on the Wall</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Daniel 6:2</t>
+          <t>Daniel 4:38</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>and over them three high officials, of whom Daniel was one, to whom these satraps should give account, so that the king might suffer no loss. 3</t>
+          <t>e King Belshazzar f made a great feast for a thousand of his g lords and drank wine in front of the thousand.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Daniel 6:3</t>
+          <t>Daniel 4:39</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Then this Daniel became distinguished above all the other high officials and satraps, because an excellent spirit was in him. And the king planned to set him over the whole kingdom. 4</t>
+          <t>e Belshazzar, when he tasted the wine, commanded that h the vessels of gold and of silver that Nebuchadnezzar his fathe r had taken out of the temple in Jerusalem be brought, that the king and his lords, his wives, and his concubines might drink from them.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Daniel 6:4</t>
+          <t>Daniel 5:3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Then the high officials and the satraps sought to find a ground for complaint against Daniel with regard to the kingdom, but they could find no ground for complaint or any fault, because he was faithful, and no error or fault was found in him. 5</t>
+          <t>Then they brought in h the golden vessels that had been taken out of the temple, the house of God in Jerusalem, and the king and his lords, his wives, and his concubines drank from them.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Daniel 6:5</t>
+          <t>Daniel 5:4</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Then these men said, We shall not find any ground for complaint against this Daniel unless we find it in connection with the law of his God. 6</t>
+          <t>They drank wine and i praised the j gods of gold and silver, bronze, iron, wood, and stone.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Daniel 6:6</t>
+          <t>Daniel 5:5</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Then these high officials and satraps came by agreemen16 t to the king and said to him, O King Darius, live forever! 7</t>
+          <t>k Immediately l the fingers of a human hand appeared and wrote on the plaster of the wall of the king s palace, opposite the lampstand. And the king saw m the hand as it wrote.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Daniel 6:7</t>
+          <t>Daniel 5:6</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>All the high officials of the kingdom, the prefects and the satraps, the counselors and the governors are agreed that the king should establish an ordinance and enforce an injunction, that whoever makes petition to any god or man for thirty days, except to you, O king, shall be cast into the den of lions. 8</t>
+          <t>n Then the king s color changed, o and his thoughts alarmed him; p his limbs gave way, and q his knees knocked together.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Daniel 6:8</t>
+          <t>Daniel 5:7</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Now, O king, establish the injunction and sign the document, so that it cannot be changed, according to the law of the Medes and the Persians, which cannot be revoked. 9</t>
+          <t>r The king called loudly to bring in r the enchanters, the s Chaldeans, and t the astrologers. The king declare d to the wise men of Babylon, u Whoever reads this writing, and shows me its interpretation, shall be clothed with purple and have a chain of gold around his neck and v shall be the third ruler in the kingdom.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Daniel 6:9</t>
+          <t>Daniel 5:8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Therefore King Darius signed the document and injunction.</t>
+          <t>Then all the king s wise men came in, but w they could not read the writing or make known to the king the interpretation.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Daniel 6:10</t>
+          <t>Daniel 5:9</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>When Daniel knew that the document had been signed, he went to his house where he had windows in his upper chamber open toward Jerusalem. He got down on his knees three times a day and prayed and gave thanks before his God, as he had done previously.</t>
+          <t>Then King Belshazzar was greatly x alarmed, and his n color changed, and his y lords were perplexed.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Daniel 6:11</t>
+          <t>Daniel 5:10</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Then these men came by agreement and found Daniel making petition and plea before his God.</t>
+          <t>The queen, because of the words of the king and his lords, came into the banqueting hall, and the queen declared, z O king, live forever! Let not your thoughts alarm you a or your color change.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Daniel 6:12</t>
+          <t>Daniel 5:11</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Then they came near and said before the king, concerning the injunction, O king! Did you not sign an injunction, that anyone who makes petition to any god or man within thirty days except to you, O king, shall be cast into the den of lions The king answered and said, The thing stands fast, according to the law of the Medes and Persians, which cannot be revoked.</t>
+          <t>There is a man in your kingdom b in whom is the spirit of the holy gods. In the days of your father, c light and understanding and wisdom like the wisdom of the gods were found in him, and King Nebuchadnezzar, your fathe r your father the kin g d made him chief of the magicians, r enchanters, Chaldeans, and astrologers,</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Daniel 6:13</t>
+          <t>Daniel 5:12</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Then they answered and said before the king, Daniel, who is one of the exiles from Judah, pays no attention to you, O king, or the injunction you have signed, but makes his petition three times a day.</t>
+          <t>e because an excellent spirit, knowledge, and f understanding f to interpret dreams, explain riddles, and g solve problems were found in this Daniel, h whom the king named Belteshazzar. Now let Daniel be called, and he will show the interpretation. Daniel Interprets the Handwriting</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Daniel 6:14</t>
+          <t>Daniel 5:13</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Then the king, when he heard these words, was much distressed and set his mind to deliver Daniel. And he labored till the sun went down to rescue him.</t>
+          <t>Then Daniel was brought in before the king. The king answered and said to Daniel, You are that Daniel, one of i the exiles of Judah, whom the king my father brought from Judah.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Daniel 6:15</t>
+          <t>Daniel 5:14</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Then these men came by agreement to the king and said to the king, Know, O king, that it is a law of the Medes and Persians that no injunction or ordinance that the king establishes can be changed.</t>
+          <t>I have heard of you that b the spirit of the god s is in you, and that c light and understanding and excellent wisdom are found in you.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Daniel 6:16</t>
+          <t>Daniel 5:15</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Then the king commanded, and Daniel was brought and cast into the den of lions. The king declare d to Daniel, May your God, whom you serve continually, deliver you!</t>
+          <t>Now j the wise men, the k enchanters, have been brought in before me to read this writing and make known to me its interpretation, but l they could not show the interpretation of the matter.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Daniel 6:18</t>
+          <t>Daniel 5:16</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Then the king went to his palace and spent the night fasting; no diversions were brought to him, and sleep fled from him.</t>
+          <t>m But I have heard that you can give interpretations and n solve problems. o Now if you can read the writing and make known to me its interpretation, o you shall be clothed with purple and have a chain of gold around your neck and p shall be the third ruler in the kingdom.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Daniel 6:19</t>
+          <t>Daniel 5:17</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Then, at break of day, the king arose and went in haste to the den of lions.</t>
+          <t>Then Daniel answered and said before the king, q Let your gifts be for yourself, and give your rewards to another. Nevertheless, I will read the writing to the king and make known to him the interpretation.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Daniel 6:20</t>
+          <t>Daniel 5:18</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>As he came near to the den where Daniel was, he cried out in a tone of anguish. The king declared to Daniel, O niel, servant of the living God, has your God, whom you serve continually, been able to deliver you from the lions</t>
+          <t>O king, the r Most High God s gave t Nebuchadnezzar your father u kingship and greatness and glory and majesty.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Daniel 6:21</t>
+          <t>Daniel 5:19</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Then Daniel said to the king, O king, live forever!</t>
+          <t>And because of the greatness that he gave him, v all peoples, nations, and languages w trembled and feared before him. Whom he would, he killed, and whom he would, he kept alive; whom he would, he raised up, and whom he would, he humbled.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Daniel 6:22</t>
+          <t>Daniel 5:20</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>My God sent his angel and shut the lions mouths, and they have not harmed me, because I was found blameless before him; and also before you, O king, I have done no harm.</t>
+          <t>But x when his heart was lifted up and his spirit was hardened so that he dealt proudly, y he was brought down from his kingly throne, and his glory was taken from him.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Daniel 6:23</t>
+          <t>Daniel 5:21</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Then the king was exceedingly glad, and commanded that Daniel be taken up out of the den. So Daniel was taken up out of the den, and no kind of harm was found on him, because he had trusted in his God.</t>
+          <t>z He was driven from among the children of mankind, and his mind was made like that of a beast, and his dwelling was with the wild donkeys. He was fed grass like an ox, and his body was wet with the dew of heaven, z until he knew that the r Most High God rules the kingdom of mankind and sets over it whom he will.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Daniel 6:24</t>
+          <t>Daniel 5:22</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>And the king commanded, and those men who had maliciously accused Daniel were brought and cast into the den of lion's they, their children, and their wives. And before they reached the bottom of the den, the lions overpowered them and broke all their bones in pieces.</t>
+          <t>And you his son,</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Daniel 6:251600</t>
+          <t>Daniel 5:23</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Then King Darius wrote to all the peoples, nations, and languages that dwell in all the earth: Peace be multiplied to you.</t>
+          <t>a Belshazzar, b have not humbled your heart, though you knew all this,</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Daniel 6:27</t>
+          <t>Daniel 5:23</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>He delivers and rescues; - he works signs and wonders in heaven and on earth, - he who has saved Daniel - from the power of the lions.</t>
+          <t>but you have lifted up yourself against c the Lord of heaven. And d the vessels of his house have been brought in before you, and you and your lords, your wives, and your concubines have drunk wine from them. e And you have praised the gods of silver and gold, of bronze, iron, wood, and stone, which do not see or hear or know, f but the God in whose hand is your breath, and g whose are all your ways, h you have not honored.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Daniel 6:28</t>
+          <t>Daniel 5:24</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>So this Daniel prospered during the reign of Darius and the reign of Cyrus the Persian. Daniel's Vision of the Four Beasts 7</t>
+          <t>Then from his presence i the hand was sent, and this writing was inscribed.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Daniel 7:1</t>
+          <t>Daniel 5:25</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>In the first year of Belshazzar king of Babylon, Daniel saw a dream and visions of his head as he lay in his bed. Then he wrote down the dream and told the sum of the matter. 2</t>
+          <t>And this is the writing that was inscribed: Mene, Mene, Tekel, and Parsin.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Daniel 7:2</t>
+          <t>Daniel 5:26</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Daniel declared, I saw in my vision by night, and behold, the four winds of heaven were stirring up the great sea. 3</t>
+          <t>This is the interpretation of the matter: Mene, God has numbere d the days of your kingdom and brought it to an end;</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Daniel 7:3</t>
+          <t>Daniel 5:27</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>And four great beasts came up out of the sea, different from one another. 4</t>
+          <t>Tekel, j you have been weighe d in the balances and found wanting;</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Daniel 7:4</t>
+          <t>Daniel 5:28</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>The first was like a lion and had eagles wings. Then as I looked its wings were plucked off, and it was lifted up from the ground and made to stand on two feet like a man, and the mind of a man was given to it. 5</t>
+          <t>Peres, your kingdom is divided and given to k the Medes and l Persians.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Daniel 7:5</t>
+          <t>Daniel 5:29</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>And behold, another beast, a second one, like a bear. It was raised up on one side. It had three ribs in its mouth between its teeth; and it was told, Arise, devour much flesh. 6</t>
+          <t>Then a Belshazzar gave the command, and Daniel m was clothed with purple, a chain of gold was put around his neck, and a proclamation was made about him, that he should be the third ruler in the kingdom.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Daniel 7:6</t>
+          <t>Daniel 5:30</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>After this I looked, and behold, another, like a leopard, with four wings of a bird on its back. And the beast had four heads, and dominion was given to it. 7</t>
+          <t>n That very night a Belshazzar the o Chaldean king was killed.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Daniel 7:7</t>
+          <t>Daniel 5:31</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>After this I saw in the night visions, and behold, a fourth beast, terrifying and dreadful and exceedingly strong. It had great iron teeth; it devoured and broke in pieces and stamped what was left with its feet. It was different from all the beasts that were before it, and it had ten horns. 8</t>
+          <t>And p Darius k the Mede received the kingdom, being about sixty-two years old. Daniel and the Lions Den</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Daniel 7:8</t>
+          <t>Daniel 6:1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>I onsidered the horns, and behold, there came up among them another horn, a little one, before which three of the first horns were plucked up by the roots. And behold, in this horn were eyes like the eyes of a man, and a mouth speaking great things. The Ancient of Days Reigns 9</t>
+          <t>It pleased Darius to set over the kingdom q</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Daniel 7:9</t>
+          <t>Daniel 6:2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>As I looked, - thrones were placed, - and the Ancient of Days took his seat; - his clothing was white as snow, - and the hair of his head like pure wool; - his throne was fiery flames; - its wheels were burning fire. -</t>
+          <t>r satraps, to be throughout the whole kingdom;</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Daniel 7:10</t>
+          <t>Daniel 6:2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>A stream of fire issued - and came out from before him; - a thousand thousands served him, - and ten thousand times ten thousand stood before him; - the court sat in judgment, - and the books were opened.</t>
+          <t>and over them s three high officials, of whom Daniel was one, to whom these r satraps should give account, so that the king might suffer no loss.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Daniel 7:11</t>
+          <t>Daniel 6:3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>I looked then because of the sound of the great words that the horn was speaking. And as I looked, the beast was killed, and its body destroyed and given over to be burned with fire.</t>
+          <t>Then this Daniel became t distinguished above all s the other high officials and r satraps, because u an excellent spirit was in him. And the king planned v to set him over the whole kingdom.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Daniel 7:12</t>
+          <t>Daniel 6:4</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>As for the rest of the beasts, their dominion was taken away, but their lives were prolonged for a season and a time. The Son of Man Is Given Dominion</t>
+          <t>Then s the high officials and r the satraps w sought to find a ground for complaint against Daniel with regard to the kingdom, x but they could find no ground for complaint or any fault, because he was faithful, x and no error or fault was found in him.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Daniel 7:13</t>
+          <t>Daniel 6:5</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>I saw in the night visions, - and behold, with the clouds of heaven - there came one like a son of man, - and he came to the Ancient of Days - and was presented before him. -</t>
+          <t>Then these men said, We shall not find any ground for complaint against this Daniel unless we find it in connection with the law of his God.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Daniel 7:14</t>
+          <t>Daniel 6:6</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>And to him was given dominion - and glory and a kingdom, - that all peoples, nations, and languages - should serve him; - his dominion is an everlasting dominion, - which shall not pass away, - and his kingdom one - that shall not be destroyed. Daniel's Vision Interpreted</t>
+          <t>Then these s high officials and r satraps came by agreemen t to the king and said to him, O y King Darius, live forever!</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Daniel 7:15</t>
+          <t>Daniel 6:7</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>As for me, Daniel, my spirit within m e was anxious, and the visions of my head alarmed me.</t>
+          <t>All the s high officials of the kingdom, the prefects and the satraps, the z counselors and the governors are agreed that the king should establish an ordinance and enforce an a injunction, that whoever makes petition to any god or man for thirty days, except to you, O king, shall be cast into the den of lions.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Daniel 7:16</t>
+          <t>Daniel 6:8</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>I pproached one of those who stood there and asked him the truth concerning all this. So he told me and made known to me the interpretation of the things.</t>
+          <t>Now, O king, establish a the injunction and sign the document, so that it cannot be changed, according to b the law of c the Medes and the Persians, d which cannot be revoked.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Daniel 7:18</t>
+          <t>Daniel 6:9</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>But the saints of the Most High shall receive the kingdom and possess the kingdom forever, forever and ever.</t>
+          <t>Therefore King Darius signed the document and a injunction.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Daniel 7:19</t>
+          <t>Daniel 6:10</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Then I desired to know the truth about the fourth beast, which was different from all the rest, exceedingly terrifying, with its teeth of iron and claws of bronze, and which devoured and broke in pieces and stamped what was left with its feet,</t>
+          <t>When Daniel knew that the document had been signed, he went to his house where e he had windows in his upper chamber open f toward Jerusalem. He got down on his knees g three times a day and prayed and h gave thanks before his God, as he had done previously.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Daniel 7:21</t>
+          <t>Daniel 6:11</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>As I looked, this horn made war with the saints and prevailed over them,</t>
+          <t>Then these men came by agreement and found Daniel making petition and plea before his God.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Daniel 7:22</t>
+          <t>Daniel 6:12</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>until the Ancient of Days came, and judgment was given for the saints of the Most High, and the time came when the saints possessed the kingdom.</t>
+          <t>Then they i came near and said before the king, concerning the injunction, O king! Did you not sign j an injunction, that anyone who makes petition to any god or man within thirty days except to you, O king, shall be cast into the den of lions? The king answered and said, The thing stands fast, according to the law of c the Medes and Persians, d which cannot be revoked.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Daniel 7:23</t>
+          <t>Daniel 6:13</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Thus he said: As for the fourth beast, - there shall be a fourth kingdom on earth, - which shall be different from all the kingdoms, - and it shall devour the whole earth, - and trample it down, and break it to pieces. -</t>
+          <t>Then they answered and said before the king, k Daniel, who is one l of the exiles k from Judah, m pays no attention to you, O king, or j the injunction you have signed, but makes his petition g three times a day.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Daniel 7:24</t>
+          <t>Daniel 6:14</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>As for the ten horns, out of this kingdom ten kings shall arise, - and another shall arise after them; - he shall be different from the former ones, - and shall put down three kings. -</t>
+          <t>Then n the king, when he heard these words, n was much distressed and set his mind to deliver Daniel. And he labored till the sun went down to rescue him.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Daniel 7:25</t>
+          <t>Daniel 6:15</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>He shall speak words against the Most High, - and shall wear out the saints of the Most High, - and shall think to change the times and the law; - and they shall be given into his hand - for a time, times, and half a time. -</t>
+          <t>Then these men came by agreement to the king and said to the king, Know, O king, that it is a law of the Medes and Persians that no j injunction or ordinance that the king establishes can be changed.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Daniel 7:26</t>
+          <t>Daniel 6:16</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>But the court shall sit in judgment, - and his dominion shall be taken away, to be consumed and destroyed to the end. -</t>
+          <t>Then the king commanded, and Daniel was brought and cast into the den of lions. The king declare d to Daniel, May o your God, whom you serve continually, deliver you!</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Daniel 7:27</t>
+          <t>Daniel 6:17</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>And the kingdom and the dominion - and the greatness of the kingdoms under the whole heaven shall be given to the people of the saints of the Most High; - his kingdom shall be an everlasting kingdom, - and all dominions shall serve and obey him.</t>
+          <t>p And a stone was brought and laid on the mouth of the den, q and the king sealed it r with his own signet and with the signet of his s lords, that nothing might be changed concerning Daniel.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Daniel 7:28</t>
+          <t>Daniel 6:18</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Here is the end of the matter. As for me, Daniel, my thoughts greatly alarmed me, and my color changed, but I kept the matter in my heart. Daniel's Vision of the Ram and the Goat 8</t>
+          <t>Then the king went to his palace and spent the night fasting; t no diversions were brought to him, and u sleep fled from him.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Daniel 8:1</t>
+          <t>Daniel 6:19</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>In the third year of the reign of King Belshazzar a vision appeared to me, Daniel, after that which appeared to me at the first. 2</t>
+          <t>Then, at break of day, the king arose and went in haste to the den of lions.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Daniel 8:2</t>
+          <t>Daniel 6:20</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>And I saw in the vision; and when I saw, I was in Susa the citadel, which is in the province of Elam. And I saw in the vision, and I was at the Ulai canal. 3</t>
+          <t>As he came near to the den where Daniel was, he cried out in a tone of anguish. The king declared to Daniel, O Daniel, servant of v the living God, o has your God, whom you serve continually, w been able to deliver you from the lions?</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Daniel 8:3</t>
+          <t>Daniel 6:21</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>I raised my eyes and saw, and behold, a ram standing on the bank of the canal. It had two horns, and both horns were high, but one was higher than the other, and the higher one came up last. 4</t>
+          <t>Then Daniel said to the king, x O king, live forever!</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Daniel 8:4</t>
+          <t>Daniel 6:22</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>I saw the ram charging westward and northward and southward. No beast could stand before him, and there was no one who could rescue from his power. He did as he pleased and became great. 5</t>
+          <t>My God y sent his angel z and shut the lions mouths, and they have not harmed me, because I was found blameless a before him; a and also before you, O king, I have done no harm.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Daniel 8:5</t>
+          <t>Daniel 6:23</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>As I was considering, behold, a male goat came from the west across the face of the whole earth, without touching the ground. And the goat had a conspicuous horn between his eyes. 6</t>
+          <t>Then the king was exceedingly glad, and commanded that Daniel be taken up out of the den. So Daniel was taken up out of the den, and b no kind of harm was found on him, because he had trusted in his God.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Daniel 8:6</t>
+          <t>Daniel 6:24</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>He came to the ram with the two horns, which I had seen standing on the bank of the canal, and he ran at him in his powerful wrath. 7</t>
+          <t>And the king commanded, and c those men who had maliciously accused Daniel were brought and cast into the den of lion s they, their children, and their wives. And before they reached the bottom of the den, the lions overpowered them and broke all their bones in pieces.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Daniel 8:7</t>
+          <t>Daniel 6:25</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>I saw him come close to the ram, and he was enraged against him and struck the ram and broke his two horns. And the ram had no power to stand before him, but he cast him down to the ground and trampled on him. And there was no one who could rescue the ram from his power. 8</t>
+          <t>Then King Darius wrote to all d the peoples, nations, and languages e that dwell in all the earth: f Peace be multiplied to you.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Daniel 8:8</t>
+          <t>Daniel 6:26</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Then the goat became exceedingly great, but when he was strong, the great horn was broken, and instead of it there came up four conspicuous horns toward the four winds of heaven. 9</t>
+          <t>g I make a decree, that in all my royal dominion h people are to tremble and fear before the God of Daniel, for i he is j the living God, enduring forever; his kingdom shall never be destroyed, j and his dominion shall be k to the end.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Daniel 8:9</t>
+          <t>Daniel 6:27</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Out of one of them came a little horn, which grew exceedingly great toward the south, toward the east, and toward the glorious land.</t>
+          <t>He delivers and rescues; he works l signs and wonders in heaven and on earth, he who has m saved Daniel from the power of the lions.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Daniel 8:12</t>
+          <t>Daniel 6:28</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>And a host will be given over to it together with the regular burnt offering because of transgression, and it will throw truth to the ground, and it will act and prosper.</t>
+          <t>So this Daniel prospered during the reign of Darius and n the reign of o Cyrus the Persian. Daniel s Vision of the Four Beasts</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Daniel 8:13</t>
+          <t>Daniel 7:1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Then I heard a holy one speaking, and another holy one said to the one who spoke, For how long is the vision concerning the regular burnt offering, the transgression that makes desolate, and the giving over of the sanctuary and host to be trampled underfoot</t>
+          <t>In the first year of p Belshazzar king of Babylon, q Daniel saw a dream and r visions of his head as he lay in his bed. Then he wrote down the dream and told the sum of the matter.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Daniel 8:14</t>
+          <t>Daniel 7:2</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>And he said to me, For 2, evenings and mornings. Then the sanctuary shall be restored to its rightful state. The Interpretation of the Vision</t>
+          <t>Daniel declared, I saw in my vision by night, and behold, s the four winds of heaven were stirring up the great sea.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Daniel 8:15</t>
+          <t>Daniel 7:3</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>When I, Daniel, had seen the vision, I sought to understand it. And behold, there stood before me one having the appearance of a man.</t>
+          <t>And four great beasts t came up out of the sea, different from one another.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Daniel 8:17</t>
+          <t>Daniel 7:4</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>So he came near where I stood. And when he came, I was frightened and fell on my face. But he said to me, Understand, O son of man, that the vision is for the time of the end.</t>
+          <t>The first was like a lion and had eagles wings. Then as I looked its wings were plucked off, and it was lifted up from the ground and made to stand on two feet like a man, and the mind of a man was given to it.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Daniel 8:18</t>
+          <t>Daniel 7:5</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>And when he had spoken to me, I ll into a deep sleep with my face to the ground. But he touched me and made me stand up.</t>
+          <t>And behold, u another beast, a second one, like a bear. It was raised up on one side. It had three ribs in its mouth between its teeth; and it was told, Arise, devour much flesh.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Daniel 8:19</t>
+          <t>Daniel 7:6</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>He said, Behold, I will make known to you what shall be at the latter end of the indignation, for it refers to the appointed time of the end.</t>
+          <t>After this I looked, and behold, another, like a v leopard, with four wings of a bird on its back. And the beast had four heads, and w dominion was given to it.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Daniel 8:20</t>
+          <t>Daniel 7:7</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>As for the ram that you saw with the two horns, these are the kings of Media and Persia.</t>
+          <t>After this I saw in the night visions, and behold, a fourth beast, x terrifying and dreadful and exceedingly strong. It had great iron teeth; x it devoured and broke in pieces x and stamped what was left with its feet. It was different from all the beasts that were before it, and y it had ten horns.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Daniel 8:21</t>
+          <t>Daniel 7:8</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>And the goa16 t is the king of Greece. And the great horn between his eyes is the first king.</t>
+          <t>I considered the horns, and behold, z there came up among them another horn, a little one, z before which three of the first horns were plucked up by the roots. And behold, in this horn were eyes like the eyes of a man, and a a mouth speaking great things. The Ancient of Days Reigns</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Daniel 8:23</t>
+          <t>Daniel 7:9</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>And at the latter end of their kingdom, when the transgressors have reached their limit, a king of bold face, one who understands riddles, shall arise.</t>
+          <t>As I looked, b thrones were placed, and the c Ancient of Days took his seat; d his clothing was white as snow, and e the hair of his head like pure wool; his throne was fiery flames; f its wheels were burning fire.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Daniel 8:24</t>
+          <t>Daniel 7:10</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>His power shall be grea t16 but not by his own power; and he shall cause fearful destruction and shall succeed in what he does, and destroy mighty men and the people who are the saints.</t>
+          <t>g A stream of fire issued and came out from before him; h a thousand thousands i served him, h and ten thousand times ten thousand j stood before him; the k court sat in judgment, and l the books were opened.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Daniel 8:26</t>
+          <t>Daniel 7:11</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>The vision of the evenings and the mornings that has been told is true, but seal up the vision, for it refers to many days from now.</t>
+          <t>I looked then because of the sound of a the great words that the horn was speaking. And as I looked, m the beast was killed, and its body destroyed m and given over to be burned with fire.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Daniel 8:27</t>
+          <t>Daniel 7:12</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>And I, Daniel, was overcome and lay sick for some days. Then I rose and went about the king's business, but I was appalled by the vision and did not understand it. Daniel's Prayer for His People 9</t>
+          <t>As for the rest of the beasts, n their dominion was taken away, but their lives were prolonged for a season and a time. The Son of Man Is Given Dominion</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Daniel 9:2</t>
+          <t>Daniel 7:13</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>in the first year of his reign, I, Daniel, perceived in the books the number of years that, according to the word of the Lord to Jeremiah the prophet, must pass before the end of the desolations of Jerusalem, namely, seventy years. 3</t>
+          <t>I saw in the night visions, and o behold, with the clouds of heaven there came one like a son of man, and he came to the c Ancient of Days and was presented before him.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Daniel 9:3</t>
+          <t>Daniel 7:14</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Then I turned my face to the Lord God, seeking him by prayer and pleas for mercy with fasting and sackcloth and ashes. 4</t>
+          <t>p And to him was given dominion and glory and a kingdom, that all q peoples, nations, and languages should serve him; r his dominion is an everlasting dominion, which shall not pass away, and his kingdom one that shall not be destroyed. Daniel s Vision Interpreted</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Daniel 9:4</t>
+          <t>Daniel 7:15</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>I prayed to the Lord my God and made confession, saying, O Lord, the great and awesome God, who keeps cov173 enant and steadfast love with those who love him and keep his commandments, 5</t>
+          <t>As for me, Daniel, my spirit within m e was anxious, and s the visions of my head alarmed me.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Daniel 9:7</t>
+          <t>Daniel 7:16</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>To you, O Lord, belongs righteousness, but to us open shame, as at this day, to the men of Judah, to the in173 hab173 i173 tants of Jerusalem, and to all Israel, those who are near and those who are far away, in all the lands to which you have driven them, because of the treachery that they have committed against you. 8</t>
+          <t>I approached one of those who stood there and asked him the truth concerning all this. So he told me and made known to me the interpretation of the things.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Daniel 9:8</t>
+          <t>Daniel 7:17</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>To us, O Lord , belongs open shame, to our kings, to our princes, and to our fathers, because we have sinned against you. 9</t>
+          <t>t These four great beasts are four kings who shall arise out of the earth.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Daniel 9:12</t>
+          <t>Daniel 7:18</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>He has confirmed his words, which he spoke against us and against our rulers who ruled us, by bringing upon us a great calamity. For under the whole heaven there has not been done anything like what has been done against Jerusalem.</t>
+          <t>But u the saints of the Most High shall receive the kingdom and possess the kingdom forever, forever and ever.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Daniel 9:15</t>
+          <t>Daniel 7:19</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>And now, O Lord our God, who brought your people out of the land of Egypt with a mighty hand, and have made a name for yourself, as at this day, we have sinned, we have done wickedly.</t>
+          <t>Then I desired to know the truth about v the fourth beast, which was different from all the rest, exceedingly terrifying, with its teeth of iron and claws of bronze, and which devoured and broke in pieces and stamped what was left with its feet,</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Daniel 9:16</t>
+          <t>Daniel 7:20</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>O Lord, according to all your righteous acts, let your anger and your wrath turn away from your city Jerusalem, your holy hill, because for our sins, and for the iniquities of our fathers, Jerusalem and your people have become a byword among all who are around us.</t>
+          <t>w and about the ten horns that were on its head, and the other horn that came up and before which three of them fell, the horn that had eyes and a mouth that spoke great things, and that seemed greater than its companions.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Daniel 9:17</t>
+          <t>Daniel 7:21</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Now therefore, O our God, listen to the prayer of your servant and to his pleas for mercy, and for your own sake, O Lord, make your face to shine upon your sanctuary, which is desolate.</t>
+          <t>As I looked, this horn x made war with the saints and prevailed over them,</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Daniel 9:19</t>
+          <t>Daniel 7:22</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>O Lord, hear; O Lord, forgive. O Lord, pay attention and act. Delay not, for your own sake, O my God, because your city and your people are called by your name. Gabriel Brings an Answer</t>
+          <t>until the y Ancient of Days came, and u judgment was given for the saints of the Most High, and the time came when u the saints possessed the kingdom.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Daniel 9:21</t>
+          <t>Daniel 7:23</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>while I was speaking in prayer, the man Gabriel, whom I had seen in the vision at the first, came to me in swift flight at the time of the evening sacrifice.</t>
+          <t>Thus he said: As for v the fourth beast, there shall be a fourth kingdom on earth, which shall be different from all the kingdoms, and it shall devour the whole earth, and trample it down, and break it to pieces.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Daniel 9:26</t>
+          <t>Daniel 7:24</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>And after the sixty- two weeks, an anointed one shall be cut off and shall have nothing. And the people of the prince who is to come shall destroy the city and the sanctuary. It16's end shall come with a flood, and to the end there shall be war. Desolations are decreed.</t>
+          <t>As for the ten horns, out of this kingdom ten kings shall arise, and another shall arise after them; he shall be different from the former ones, and shall put down three kings.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Daniel 9:27</t>
+          <t>Daniel 7:25</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>And he shall make a strong cov173 enant with many for one week, and for half of the week he shall put an end to sacrifice and offering. And on the wing of abominations shall come one who makes desolate, until the decreed end is poured out on the desolator. Daniel's Terrifying Vision of a Man</t>
+          <t>z He shall speak words against the Most High, and shall wear out the saints of the Most High, and shall think to a change the times and the law; and they shall be given into his hand for b a time, times, and half a time.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Daniel 10:2</t>
+          <t>Daniel 7:26</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>In those days I, Daniel, was mourning for three weeks. 3</t>
+          <t>c But the court shall sit in judgment, and d his dominion shall be taken away, to be consumed and destroyed e to the end.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Daniel 10:3</t>
+          <t>Daniel 7:27</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>I te no delicacies, no meat or wine entered my mouth, nor did I anoint myself at all, for the full three weeks. 4</t>
+          <t>f And the kingdom and the dominion and the greatness of the kingdoms under the whole heaven shall be given to the people of f the saints of the Most High; g his kingdom shall be an everlasting kingdom, and all dominions shall serve and obey him.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Daniel 10:4</t>
+          <t>Daniel 7:28</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>On the twenty- fourth day of the first month, as I was standing on the bank of the great river ( that is, the Tigris) 5</t>
+          <t>Here is the end of the matter. h As for me, Daniel, my i thoughts greatly alarmed me, j and my color changed, but k I kept the matter in my heart. Daniel s Vision of the Ram and the Goat</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Daniel 10:6</t>
+          <t>Daniel 8:1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>His body was like beryl, his face like the appearance of lightning, his eyes like flaming torches, his arms and legs like the gleam of burnished bronze, and the sound of his words like the sound of a multitude. 7</t>
+          <t>In the third year of the reign of l King Belshazzar a vision appeared to me, Daniel, m after that which appeared to me m at the first.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Daniel 10:8</t>
+          <t>Daniel 8:2</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>So I was left alone and saw this great vision, and no strength was left in me. My radiant appearance was fearfully changed, and I retained no strength. 9</t>
+          <t>And I saw in the vision; and when I saw, I was in n Susa the citadel, which is in the province of o Elam. And p I saw in the vision, p and I was at the q Ulai canal.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Daniel 10:9</t>
+          <t>Daniel 8:3</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Then I heard the sound of his words, and as I heard the sound of his words, I ll on my face in deep sleep with my face to the ground.</t>
+          <t>I raised my eyes and saw, and behold, r a ram standing on the bank of the canal. It had two horns, and both horns were high, but one was higher than the other, and the higher one came up last.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Daniel 10:10</t>
+          <t>Daniel 8:4</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>And behold, a hand touched me and set me trembling on my hands and knees.</t>
+          <t>I saw s the ram charging westward and northward and southward. No t beast u could stand before him, v and there was no one who could rescue from his power. w He did as he pleased and x became great.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Daniel 10:11</t>
+          <t>Daniel 8:5</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>And he said to me, O niel, man greatly loved, understand the words that I speak to you, and stand upright, for now I have been sent to you. And when he had spoken this word to me, I stood up trembling.</t>
+          <t>As I was considering, behold, a y male goat came from the west across the face of the whole earth, without touching the ground. And the goat had y a conspicuous horn between his eyes.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Daniel 10:12</t>
+          <t>Daniel 8:6</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Then he said to me, Fear not, Daniel, for from the first day that you set your heart to understand and humbled yourself before your God, your words have been heard, and I have come because of your words.</t>
+          <t>He came to z the ram with the two horns, which I had seen standing on the bank of the canal, a and he ran at him in his powerful wrath.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Daniel 10:15</t>
+          <t>Daniel 8:7</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>When he had spoken to me according to these words, I turned my face toward the ground and was mute.</t>
+          <t>I saw him come close to the ram, b and he was enraged against him and struck the ram and broke his two horns. c And the ram had no power to stand before him, but he d cast him down to the ground and trampled on him. And there was no one who could rescue the ram from his power.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Daniel 10:16</t>
+          <t>Daniel 8:8</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>And behold, one in the likeness of the children of man touched my lips. Then I opened my mouth and spoke. I said to him who stood before me, O my lord, by reason of the vision pains have come upon me, and I retain no strength.</t>
+          <t>Then y the goat e became exceedingly great, but when he was strong, the great horn was broken, and instead of it there came up four f conspicuous horns toward f the four winds of heaven.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Daniel 10:17</t>
+          <t>Daniel 8:9</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>How can my lord's servant talk with my lord For now no strength remains in me, and no breath is left in me.</t>
+          <t>Out of one of them came g a little horn, which grew exceedingly great toward h the south, toward the east, and toward i the glorious land.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Daniel 10:18</t>
+          <t>Daniel 8:10</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Again one having the appearance of a man touched me and strengthened me.</t>
+          <t>j It grew great, k even to the host of heaven. And some of the host k and som e of l the stars it threw down to the ground and m trampled on them.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Daniel 10:19</t>
+          <t>Daniel 8:11</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>And he said, O man greatly loved, fear not, peace be with you; be strong and of good courage. And as he spoke to me, I was strengthened and said, Let my lord speak, for you have strengthened me.</t>
+          <t>n It became great, even as great as o the Prince of the host. p And the regular burnt offering was taken away from him, and the place of his sanctuary was overthrown.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Daniel 10:20</t>
+          <t>Daniel 8:12</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Then he said, Do you know why I have come to you But now I will return to fight against the prince of Persia; and when I go out, behold, the prince of Greece will come.</t>
+          <t>And a host will be given over to it together with the regular burnt offering because of transgression, and it will throw truth to the ground, and q it will act and prosper.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Daniel 10:21</t>
+          <t>Daniel 8:13</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>But I will tell you what is inscribed in the book of truth: there is none who contends by my side against these except Michael, your prince. The Kings of the South and the North</t>
+          <t>Then I heard r a holy one speaking, and another holy one said to the one who spoke, s For how long is the vision concerning the regular burnt offering, t the transgression that makes desolate, and the giving over of the sanctuary and host to be trampled underfoot?</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Daniel 11:1</t>
+          <t>Daniel 8:14</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>And as for me, in the first year of Darius the Mede, I stood up to confirm and strengthen him. 2</t>
+          <t>And he said to me, For 2,300 u evenings and mornings. Then the sanctuary shall be restored to its rightful state. The Interpretation of the Vision</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Daniel 11:2</t>
+          <t>Daniel 8:15</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>And now I will show you the truth. Behold, three more kings shall arise in Persia, and a fourth shall be far richer than all of them. And when he has become strong through his riches, he shall stir up all against the kingdom of Greece. 3</t>
+          <t>When I, Daniel, had seen the vision, I v sought to understand it. And behold, there stood before me one having w the appearance of a man.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Daniel 11:3</t>
+          <t>Daniel 8:16</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Then a mighty king shall arise, who shall rule with great dominion and do as he wills. 4</t>
+          <t>x And I heard a man s voice x between the banks of the y Ulai, and it called, z Gabriel, make this man understand the vision.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Daniel 11:4</t>
+          <t>Daniel 8:17</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>And as soon as he has arisen, his kingdom shall be broken and divided toward the four winds of heaven, but not to his posterity, nor according to the authority with which he ruled, for his kingdom shall be plucked up and go to others besides these. 5</t>
+          <t>So he came near where I stood. And when he came, a I was frightened b and fell on my face. But he said to me, Understand, c O son of man, that the vision is for d the time of the end.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Daniel 11:5</t>
+          <t>Daniel 8:18</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Then the king of the south shall be strong, but one of his princes shall be stronger than he and shall rule, and his authority shall be a great authority. 6</t>
+          <t>And when he had spoken to me, e I fell into a deep sleep with my face to the ground. But f he touched me and made me stand up.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Daniel 11:6</t>
+          <t>Daniel 8:19</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>After some years they shall make an alliance, and the daughter of the king of the south shall come to the king of the north to make an agreement. But she shall not retain the strength of her arm, and he and his arm shall not endure, but she shall be given up, and her attendants, he who fathered her, and he who supporte d her in those times. 7</t>
+          <t>He said, Behold, I will make known to you what shall be at the latter end of g the indignation, for it refers to h the appointed time of the end.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Daniel 11:7</t>
+          <t>Daniel 8:20</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>And from a branch from her roots one shall arise in his place. He shall come against the army and enter the fortress of the king of the north, and he shall deal with them and shall prevail. 8</t>
+          <t>As for i the ram that you saw with the two horns, these are the kings of j Media and Persia.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Daniel 11:8</t>
+          <t>Daniel 8:21</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>He shall also carry off to Egypt their gods with their metal images and their precious vessels of silver and gold, and for some years he shall refrain from attacking the king of the north. 9</t>
+          <t>And k the goa t is the king of Greece. And k the great horn between his eyes is l the first king.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Daniel 11:9</t>
+          <t>Daniel 8:22</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Then the latter shall come into the realm of the king of the south but shall return to his own land.</t>
+          <t>m As for the horn that was broken, in place of which four others arose, four kingdoms shall arise from hi s nation, n but not with his power.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Daniel 11:10</t>
+          <t>Daniel 8:23</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>His sons shall wage war and assemble a multitude of great forces, which shall keep coming and overflow and pass through, and again shall carry the war as far as his fortress.</t>
+          <t>And at the latter end of their kingdom, when the transgressors have reached their limit, a king of bold face, one who understands riddles, shall arise.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Daniel 11:11</t>
+          <t>Daniel 8:24</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Then the king of the south, moved with rage, shall come out and fight against the king of the north. And he shall raise a great multitude, but it shall be given into his hand.</t>
+          <t>His power shall be grea t o but not by his own power; and he shall cause fearful destruction p and shall succeed in what he does, q and destroy mighty men and the people who are the saints.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Daniel 11:12</t>
+          <t>Daniel 8:25</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>And when the multitude is taken away, his heart shall be exalted, and he shall cast down tens of thousands, but he shall not prevail.</t>
+          <t>r By his cunning he shall make deceit prosper under his hand, and in his own mind s he shall become great. t Without warning he shall destroy many. And he s shall even rise up against the Prince of princes, and he shall be broke n but u by no human hand.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Daniel 11:13</t>
+          <t>Daniel 8:26</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>For the king of the north shall again raise a multitude, greater than the first. And after some year16's he shall come on with a great army and abundant supplies.</t>
+          <t>The vision of v the evenings and the mornings that has been told w is true, but x seal up the vision, y for it refers to many days from now.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Daniel 11:14</t>
+          <t>Daniel 8:27</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>In those times many shall rise against the king of the south, and the violent among your own people shall lift themselves up in order to fulfill the vision, but they shall fail.</t>
+          <t>And z I, Daniel, was overcome and lay sick for some days. Then I rose and went about the king s business, but I was appalled by the vision a and did not understand it. Daniel s Prayer for His People</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Daniel 11:15</t>
+          <t>Daniel 8:28</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Then the king of the north shall come and throw up siegeworks and take a well- fortified city. And the forces of the south shall not stand, or even his best troops, for there shall be no strength to stand.</t>
+          <t>b In the first year of c Darius the son of Ahasuerus, by descent a d Mede, who was made king over the realm of the e Chaldean s</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Daniel 11:16</t>
+          <t>Daniel 9:2</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>But he who comes against him shall do as he wills, and none shall stand before him. And he shall stand in the glorious land, with destruction in his hand.</t>
+          <t>in the first year of his reign, I, Daniel, perceived in the books the number of years that, according to f the word of the Lord to Jeremiah the prophet, must pass before the end of the desolations of Jerusalem, namely, seventy years.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Daniel 11:17</t>
+          <t>Daniel 9:3</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>He shall set his face to come with the strength of his whole kingdom, and he shall bring terms of an agreement and perform them. He shall give him the daughter of women to destroy the kingdom, but it shall not stand or be to his advantage.</t>
+          <t>Then I turned my face to the Lord God, seeking him by g prayer and pleas for mercy with fasting and sackcloth and ashes.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Daniel 11:18</t>
+          <t>Daniel 9:4</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Afterward he shall turn his face to the coastlands and shall capture many of them, but a commander shall put an end to his insolence. Indeed, he shall turn his insolence back upon him.</t>
+          <t>I prayed to the Lord my God and h made confession, saying, i O Lord, the i great and awesome God, who j keeps cov?enant and steadfast love with those who love him and keep his commandments,</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Daniel 11:19</t>
+          <t>Daniel 9:5</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Then he shall turn his face back toward the fortresses of his own land, but he shall stumble and fall, and shall not be found.</t>
+          <t>k we have sinned and done wrong and acted wickedly l and rebelled, turning aside from your commandments and rules.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Daniel 11:20</t>
+          <t>Daniel 9:6</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Then shall arise in his place one who shall send an exactor of tribute for the glory of the kingdom. But within a few days he shall be broken, neither in anger nor in battle.</t>
+          <t>m We have not listened to n your servants the prophets, who spoke in your name to o our kings, our princes, and our fathers, and to all the people of the land.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Daniel 11:21</t>
+          <t>Daniel 9:7</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>In his place shall arise a contemptible person to whom royal majesty has not been given. He shall come in without warning and obtain the kingdom by flatteries.</t>
+          <t>To you, p O Lord, belongs righteousness, but to us open shame, as at this day, to the men of Judah, to the in?hab?i?tants of Jerusalem, and to all Israel, q those who are near and q those who are far away, in r all the lands to which you have driven them, because of s the treachery that they have committed against you.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Daniel 11:22</t>
+          <t>Daniel 9:8</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Armies shall be utterly swept away before him and broken, even the prince of the cov173 enant.</t>
+          <t>To us, O Lord, belongs open shame, to our kings, to our princes, and to our fathers, because k we have sinned against you.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Daniel 11:23</t>
+          <t>Daniel 9:9</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>And from the time that an alliance is made with him he shall act deceitfully, and he shall become strong with a small people.</t>
+          <t>t To the Lord our God belong mercy and forgiveness, for we have rebelled against him</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Daniel 11:25</t>
+          <t>Daniel 9:10</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>And he shall stir up his power and his heart against the king of the south with a great army. And the king of the south shall wage war with an exceedingly great and mighty army, but he shall not stand, for plots shall be devised against him.</t>
+          <t>m and have not obeyed the voice of the Lord our God by walking in his laws, which he set before us by n his servants the prophets.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Daniel 11:26</t>
+          <t>Daniel 9:11</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Even those who eat his food shall break him. His army shall be swept away, and many shall fall down slain.</t>
+          <t>u All Israel has transgressed your law and turned aside, v refusing to obey your voice. w And the curse and oath x that are written in the Law of y Moses the servant of God have been poured out upon us, because k we have sinned against him.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Daniel 11:27</t>
+          <t>Daniel 9:12</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>And as for the two kings, their hearts shall be bent on doing evil. They shall speak lies at the same table, but to no avail, for the end is yet to be at the time appointed.</t>
+          <t>He has confirmed his words, which he spoke against us and against z our rulers who ruled us, by a bringing upon us a great calamity. b For under the whole heaven there has not been done anything like what has been done against Jerusalem.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Daniel 11:28</t>
+          <t>Daniel 9:13</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>And he shall return to his land with great wealth, but his heart shall be set against the holy cov173 enant. And he shall work his will and return to his own land.</t>
+          <t>x As it is written in the Law of Moses, all this calamity has come upon us; yet we have not entreated the favor of the Lord our God, c turning from our iniquities and gaining insight by your truth.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Daniel 11:29</t>
+          <t>Daniel 9:14</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>At the time appointed he shall return and come into the south, but it shall not be this time as it was before.</t>
+          <t>d Therefore the Lord has kept ready the calamity and has brought it upon us, e for the Lord our God is righteous in all the works that he has done, and f we have not obeyed his voice.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Daniel 11:30</t>
+          <t>Daniel 9:15</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>For ships of Kittim shall come against him, and he shall be afraid and withdraw, and shall turn back and be enraged and take action against the holy cov173 enant. He shall turn back and pay attention to those who forsake the holy cov173 enant.</t>
+          <t>And now, O Lord our God, who brought your people out of the land of Egypt g with a mighty hand, and h have made a name for yourself, as at this day, i we have sinned, we have done wickedly.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Daniel 11:31</t>
+          <t>Daniel 9:16</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Forces from him shall appear and profane the temple and fortress, and shall take away the regular burnt offering. And they shall set up the abomination that makes desolate.</t>
+          <t>O Lord, j according to all your righteous acts, let your anger and your wrath turn away from your city Jerusalem, k your holy hill, l because for our sins, and for m the iniquities of our fathers, n Jerusalem and your people have become o a byword among all who are around us.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Daniel 11:32</t>
+          <t>Daniel 9:17</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>He shall seduce with flattery those who violate the cov173 enant, but the people who know their God shall stand firm and take action.</t>
+          <t>Now therefore, O our God, listen to the prayer of your servant and to his pleas for mercy, and for your own sake, O Lord,</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Daniel 11:34</t>
+          <t>Daniel 9:18</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>When they stumble, they shall receive a little help. And many shall join themselves to them with flattery,</t>
+          <t>p make your face to shine upon q your sanctuary, which is desolate.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Daniel 11:35</t>
+          <t>Daniel 9:19</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>and some of the wise shall stumble, so that they may be refined, purified, and made white, until the time of the end, for it still awaits the appointed time.</t>
+          <t>r O my God, incline your ear and hear. Open your eyes and see s our desolations, and t the city that is called by your name. For we do not pre?sent our pleas before you because of our righteousness, but because of your great mercy.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Daniel 11:36</t>
+          <t>Daniel 9:19</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>And the king shall do as he wills. He shall exalt himself and magnify himself above every god, and shall speak astonishing things against the God of gods. He shall prosper till the indignation is accomplished; for what is decreed shall be done.</t>
+          <t>O Lord, hear; O Lord, forgive. O Lord, pay attention and act. u Delay not, v for your own sake, O my God, because t your city and w your people are called by your name. Gabriel Brings an Answer</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Daniel 11:37</t>
+          <t>Daniel 9:20</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>He shall pay no attention to the gods of his fathers, or to the one beloved by women. He shall not pay attention to any other god, for he shall magnify himself above all.</t>
+          <t>x While I was speaking and praying, confessing my sin and the sin of my people Israel, and presenting my plea before the Lord my God for y the holy hill of my God,</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Daniel 11:38</t>
+          <t>Daniel 9:21</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>He shall honor the god of fortresses instead of these. A god whom his fathers did not know he shall honor with gold and silver, with precious stones and costly gifts.</t>
+          <t>while I was speaking in prayer, the man z Gabriel, whom I had seen in the vision at the first, a came to me in swift flight at b the time of the evening sacrifice.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Daniel 11:39</t>
+          <t>Daniel 9:22</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>He shall deal with the strongest fortresses with the help of a foreign god. Those who acknowledge him he shall load with honor. He shall make them rulers over many and shall divide the land for a price.</t>
+          <t>c He made me understand, speaking with me and saying, O Daniel, I have now come out to give you d insight and understanding.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Daniel 11:41</t>
+          <t>Daniel 9:23</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>He shall come into the glorious land. And tens of thousands shall fall, but these shall be delivered out of his hand: Edom and Moab and the main part of the Ammonites.</t>
+          <t>e At the beginning of your pleas for mercy a word went out, f and I have come to tell it to you, for g you are greatly loved. Therefore consider the word h and understand the vision. The Seventy Weeks</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Daniel 11:42</t>
+          <t>Daniel 9:24</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>He shall stretch out his hand against the countries, and the land of Egypt shall not escape.</t>
+          <t>i Seventy week s are decreed about your people and j your holy city, to finish k the transgression, to put an end to sin, l and to atone for iniquity, m to bring in everlasting righteousness, to seal both vision and prophet, and n to anoint a most holy place.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Daniel 11:43</t>
+          <t>Daniel 9:25</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>He shall become ruler of the treasures of gold and of silver, and all the precious things of Egypt, and the Libyans and the Cushites shall follow in his train.</t>
+          <t>o Know therefore and understand that p from the going out of the word to restore and q build Jerusalem to the coming of an r anointed one, a s prince, there shall be seven weeks. And for sixty-two weeks it shall be built agai n with squares and moat, t but in a troubled time.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Daniel 11:44</t>
+          <t>Daniel 9:26</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>But news from the east and the north shall alarm him, and he shall go out with great fury to destroy and devote many to destruction.</t>
+          <t>And after the sixty-two weeks, an anointed one shall u be cut off and shall have nothing. And the people of the prince who is to come v shall destroy the city and the sanctuary. w It s end shall come with a flood, x and to the end there shall be war. y Desolations are decreed.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Daniel 11:45</t>
+          <t>Daniel 9:27</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>And he shall pitch his palatial tents between the sea and the glorious holy mountain. Yet he shall come to his end, with none to help him. The Time of the End</t>
+          <t>And he shall make a strong cov?enant with many for one week, and for half of the week he shall put an end to sacrifice and offering. z And on the wing of abominations shall come one who makes desolate, until a the decreed end is poured out on the desolator. Daniel s Terrifying Vision of a Man</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Daniel 12:1</t>
+          <t>Daniel 9:28</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>At that time shall arise Michael, the great prince who has charge of your people. And there shall be a time of trouble, such as never has been since there was a nation till that time. But at that time your people shall be delivered, everyone whose name shall be found written in the book. 2</t>
+          <t>b In the third year of Cyrus king of Persia a word was revealed to Daniel, c who was named Belteshazzar. And d the word was true, and it was a great conflict. And e he understood the word and e had understanding of the vision.</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Daniel 12:2</t>
+          <t>Daniel 10:2</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>And many of those who sleep in the dust of the earth shall awake, some to everlasting life, and some to shame and everlasting contempt. 3</t>
+          <t>In those days I, Daniel, was mourning for f three weeks.</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Daniel 12:4</t>
+          <t>Daniel 10:3</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>But you, Daniel, shut up the words and seal the book, until the time of the end. Many shall run to and fro, and knowledge shall increase. 5</t>
+          <t>I ate no delicacies, no meat or wine entered my mouth, nor did I g anoint myself at all, for f the full three weeks.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Daniel 12:5</t>
+          <t>Daniel 10:4</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Then I, Daniel, looked, and behold, two others stood, one on this bank of the stream and one on that bank of the stream. 6</t>
+          <t>On the twenty-fourth day of the first month, as I was standing h on the bank of the great river</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Daniel 12:6</t>
+          <t>Daniel 10:5</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>And someone said to the man clothed in linen, who was above the waters of the stream, How long shall it be till the end of these wonders 7</t>
+          <t>j I lifted up my eyes and looked, and behold, k a man clothed in linen, l with a belt of fine m gold from Uphaz around his waist.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Daniel 12:7</t>
+          <t>Daniel 10:6</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>And I heard the man clothed in linen, who was above the waters of the stream; he raised his right hand and his left hand toward heaven and swore by him who lives forever that it would be for a time, times, and half a time, and that when the shattering of the power of the holy people comes to an end all these things would be finished. 8</t>
+          <t>His body was like n beryl, his face o like the appearance of lightning, p his eyes like flaming torches, his arms and q legs like the gleam of burnished bronze, and q the sound of his words like the sound of a multitude.</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Daniel 12:8</t>
+          <t>Daniel 10:7</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>I heard, but I did not understand. Then I said, O my lord, what shall be the outcome of these things 9</t>
+          <t>r And I, Daniel, alone saw the vision, for the men who were with me did not see the vision, but a great trembling fell upon them, and they fled to hide themselves.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Daniel 12:9</t>
+          <t>Daniel 10:8</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>He said, Go your way, Daniel, for the words are shut up and sealed until the time of the end.</t>
+          <t>So I was left alone and saw this great vision, and s no strength was left in me. My radiant appearance was fearfully changed,</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>Daniel 10:9</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>t and I retained no strength.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Daniel 10:9</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Then I heard the sound of his words, u and as I heard the sound of his words, I fell on my face in deep sleep u with my face to the ground.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Daniel 10:10</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>And behold, v a hand touched me and set me trembling on my hands and knees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Daniel 10:11</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>And he said to me, O Daniel, w man greatly loved, x understand the words that I speak to you, and y stand upright, for z now I have been sent to you. And when he had spoken this word to me, I stood up trembling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Daniel 10:12</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Then he said to me, a Fear not, Daniel, for from the first day that you b set your heart to understand and b humbled yourself before your God, c your words have been heard, d and I have come because of your words.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Daniel 10:13</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>e The prince of the kingdom of Persia withstood me f twenty-one days, but g Michael, one of the chief princes, came to help me, for I was left there with the kings of Persia,</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Daniel 10:14</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>d and came to make you understand what is to happen to your people h in the latter days. For i the vision is for days yet to come.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Daniel 10:15</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>When he had spoken to me according to these words, j I turned my face toward the ground k and was mute.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Daniel 10:16</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>And behold, l one in the likeness of the children of man m touched my lips. Then I opened my mouth and spoke. I said to him who stood before me, O my lord, by reason of the vision pains have come upon me, and n I retain no strength.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Daniel 10:17</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>How can my lord s servant talk with my lord? For now no strength remains in me, and no breath is left in me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Daniel 10:18</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Again l one having the appearance of a man m touched me and strengthened me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Daniel 10:19</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>And he said, o O man greatly loved, p fear not, peace be with you; be strong and of good courage. And as he spoke to me, I was strengthened and said, Let my lord speak, for you have strengthened me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Daniel 10:20</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Then he said, Do you know why I have come to you? But now I will return to fight against the q prince of Persia; and when I go out, behold, the prince of r Greece will come.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Daniel 10:21</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>But I will tell you s what is inscribed in the book of truth: there is none who contends by my side against these except t Michael, your prince. The Kings of the South and the North</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Daniel 11:1</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>And as for me, u in the first year of u Darius the Mede, I stood up to confirm and strengthen him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Daniel 11:2</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>And now I will show you v the truth. Behold, three more kings shall arise in Persia, and a fourth shall be far richer than all of them. And when he has become strong through his riches, he shall stir up all against the kingdom of Greece.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Daniel 11:3</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Then w a mighty king shall arise, who shall rule with great dominion and x do as he wills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Daniel 11:4</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>And as soon as he has arisen, y his kingdom shall be broken and divided y toward the z four winds of heaven, but a not to his posterity, nor according to the authority with which he ruled, for his kingdom shall be plucked up and go to others besides these.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Daniel 11:5</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Then the king of the south shall be strong, but one of his princes shall be stronger than he b and shall rule, and his authority shall be a great authority.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Daniel 11:6</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>After some years c they shall make an alliance, and the daughter of the king of the south shall come to the king of the north to make an agreement. But she shall not retain the strength of her arm, and he and his arm shall not endure, but she shall be given up, and her attendants, he who fathered her, and he who supporte d her in those times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Daniel 11:7</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>And from a branch from her roots one shall arise in his place. He shall come against the army and enter the d fortress of the king of the north, and he shall deal with them and shall prevail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Daniel 11:8</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>He shall also carry off to Egypt their gods with their metal images and their precious e vessels of silver and gold, and for some years he shall refrain from attacking the king of the north.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Daniel 11:9</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Then the latter shall come into the realm of the king of the south but shall return to his own land.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Daniel 11:10</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>His sons shall wage war and assemble a multitude of great forces, which shall keep coming f and overflow and pass through, and again shall carry the war as far as his d fortress.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Daniel 11:11</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Then the king of the south, g moved with rage, shall come out and fight against the king of the north. h And he shall raise a great multitude, but it shall be given into his hand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Daniel 11:12</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>And when the multitude is taken away, his heart shall be exalted, and he shall cast down tens of thousands, but he shall not prevail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Daniel 11:13</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>For the king of the north shall again i raise a multitude, greater than the first. And j after some year s he shall come on with a great army and abundant supplies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Daniel 11:14</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>In those times many shall rise against the king of the south, and the violent among your own people shall lift themselves up in order to fulfill the vision, but k they shall fail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Daniel 11:15</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Then the king of the north shall come and l throw up siegeworks and take a well-fortified city. And the forces of the south shall not stand, or even his best troops, for there shall be no strength to stand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Daniel 11:16</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>But he who comes against him shall m do as he wills, and n none shall stand before him. And he shall stand in o the glorious land, with destruction in his hand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Daniel 11:17</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>He shall p set his face to come with the strength of his whole kingdom, and he shall bring terms of an agreement and perform them. He shall give him the daughter of women to destroy the kingdom, but it shall not stand or be to his advantage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Daniel 11:18</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Afterward he shall turn his face to the coastlands and shall capture many of them, but a commander shall put an end to his insolence. Indeed, he q shall turn his insolence back upon him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Daniel 11:19</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Then he shall turn his face back toward the r fortresses of his own land, but he shall s stumble and fall, t and shall not be found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Daniel 11:20</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Then shall arise in his place one who shall send an u exactor of tribute for the glory of the kingdom. But within a few days he shall be broken, neither in anger nor in battle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Daniel 11:21</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>In his place shall arise a contemptible person to whom royal majesty has not been given. v He shall come in without warning and obtain the kingdom w by flatteries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Daniel 11:22</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Armies shall be x utterly swept away before him and broken, even the prince of the cov?enant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Daniel 11:23</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>And from the time that an alliance is made with him he shall act deceitfully, and he shall become strong with a small people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Daniel 11:24</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>y Without warning he shall come into z the richest part s of the province, and he shall do what neither his fathers nor his fathers fathers have done, scattering among them plunder, spoil, and goods. He shall devise plans against strongholds, but only for a time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Daniel 11:25</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>And he shall stir up his power and his heart against a the king of the south with a great army. And the king of the south shall wage war with an exceedingly great and mighty army, but he shall not stand, for plots shall be devised against him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Daniel 11:26</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Even those who eat his food shall break him. His army shall be b swept away, and many shall fall down slain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Daniel 11:27</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>And as for the two kings, their hearts shall be bent on doing evil. They shall speak lies at the same table, but to no avail, for c the end is yet to be at the time appointed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Daniel 11:28</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>And he shall return to his land with great wealth, but his heart shall be set against the holy cov?enant. And he shall work his will and return to his own land.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Daniel 11:29</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>At the time appointed he shall return and come into the south, but it shall not be this time as it was before.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Daniel 11:30</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>For ships of d Kittim shall come against him, and he shall be afraid and withdraw, and shall turn back and e be enraged and e take action against the holy cov?enant. He shall turn back and pay attention to those who forsake the holy cov?enant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Daniel 11:31</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Forces from him shall appear and f profane the temple and fortress, and shall take away the regular burnt offering. And g they shall set up the abomination that makes desolate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Daniel 11:32</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>He shall seduce with flattery those who violate the cov?enant, but the people who know their God shall stand firm and take action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Daniel 11:33</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>h And the wise among the people shall make many understand, though for some days they shall stumble by sword and flame, by captivity and plunder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Daniel 11:34</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>When they stumble, they shall receive a little help. And many shall join themselves to them with flattery,</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Daniel 11:35</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>and some of the wise shall stumble, so that they may be refined, i purified, and j made white, until k the time of the end, k for it still awaits the appointed time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Daniel 11:36</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>And the king shall l do as he wills. m He shall exalt himself and magnify himself above every god, n and shall speak astonishing things against o the God of gods. p He shall prosper q till the indignation is accomplished; for what is decreed shall be done.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Daniel 11:37</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>He shall pay no attention to the gods of his fathers, or to the one beloved by women. He shall not pay attention to any other god, for m he shall magnify himself above all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Daniel 11:38</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>He shall honor the god of fortresses instead of these. A god whom his fathers did not know he shall honor r with gold and silver, with precious stones and costly gifts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Daniel 11:39</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>He shall deal with the strongest fortresses with the help of a foreign god. Those who acknowledge him he shall load with honor. He shall make them rulers over many and s shall divide the land for a price.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Daniel 11:40</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>t At the time of the end, the king of the south shall attac k him, but the king of the north shall rush upon him u like a whirlwind, with chariots and horsemen, and with many ships. And he shall come into countries and v shall overflow and pass through.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Daniel 11:41</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>He shall come into w the glorious land. And tens of thousands shall fall, but these shall be delivered out of his hand: x Edom and x Moab and the main part of the x Ammonites.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Daniel 11:42</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>He shall stretch out his hand against the countries, and the land of Egypt shall not escape.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Daniel 11:43</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>He shall become ruler of the treasures of gold and of silver, and all the precious things of Egypt, and the y Libyans and the z Cushites shall follow in his train.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Daniel 11:44</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>But news from the east and the north shall alarm him, and he shall go out with great fury to destroy and devote many to destruction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Daniel 11:45</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>And he shall pitch his palatial tents between the sea and the glorious holy mountain. Yet he shall come to his end, with none to help him. The Time of the End</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Daniel 12:1</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>At that time shall arise a Michael, the great prince who has charge of your people. And b there shall be a time of trouble, such as never has been since there was a nation till that time. But at that time your people shall be delivered, c everyone whose name shall be found written in the book.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Daniel 12:2</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>And many of those who d sleep in e the dust of the earth shall e awake, f some to everlasting life, and f some to shame and everlasting contempt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Daniel 12:3</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>g And those who are wise h shall shine like the brightness of the sky above; and i those who turn many to righteousness, like the stars forever and ever.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Daniel 12:4</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>But you, Daniel, j shut up the words and k seal the book, until l the time of the end. m Many shall run to and fro, and knowledge shall increase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Daniel 12:5</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Then I, Daniel, looked, and behold, two others stood, one on n this bank of the stream and one on that bank of the stream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Daniel 12:6</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>And someone said to o the man clothed in linen, who was above the waters of the stream,</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Daniel 12:7</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>p How long shall it be till the end of these wonders?</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Daniel 12:7</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>And I heard o the man clothed in linen, who was above the waters of the stream; q he raised his right hand and his left hand toward heaven and r swore by him who lives forever that it would be for a s time, times, and half a time, and that when the shattering of t the power of t the holy people comes to an end all these things would be finished.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Daniel 12:8</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>I heard, u but I did not understand. Then I said, O my lord, what shall be the outcome of these things?</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Daniel 12:9</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>He said, v Go your way, Daniel, w for the words are shut up and sealed until the time of the end.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Daniel 12:10</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>x Many shall purify themselves and make themselves white and be refined, but y the wicked shall act wickedly. And none of the wicked shall understand, g but those who are wise shall understand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
           <t>Daniel 12:11</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>And from the time that the regular burnt offering is taken away and the abomination that makes desolate is set up, there shall be 1, days.</t>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>And from the time that z the regular burnt offering is taken away and a the abomination that makes desolate is set up, there shall be 1,290 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Daniel 12:12</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>b Blessed is he who waits and arrives at the 1,335 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Daniel 12:13</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>c But go your way till the end. d And you shall rest and shall stand in your allotted place at e the end of the days.</t>
         </is>
       </c>
     </row>
